--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -171,18 +171,18 @@
     <t>Resultado da leitura</t>
   </si>
   <si>
+    <t xml:space="preserve">Escrever Reg </t>
+  </si>
+  <si>
+    <t>Saida Reg 2</t>
+  </si>
+  <si>
+    <t>Entrada 2</t>
+  </si>
+  <si>
     <t>(6..7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Escrever Reg </t>
-  </si>
-  <si>
-    <t>Saida Reg 2</t>
-  </si>
-  <si>
-    <t>Entrada 2</t>
-  </si>
-  <si>
     <t>reg write C</t>
   </si>
   <si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Controlador</t>
+  </si>
+  <si>
+    <t>Reg Dst</t>
   </si>
   <si>
     <t>Reg Write</t>
@@ -224,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -247,24 +250,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,7 +280,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,23 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,25 +350,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,26 +378,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,13 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,25 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +461,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,61 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,30 +575,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -706,6 +709,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -720,6 +760,80 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,81 +857,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,152 +866,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,21 +1030,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1026,107 +1057,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1379,15 +1386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>739775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>739775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1395,26 +1402,26 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14822805" y="2774950"/>
-          <a:ext cx="734695" cy="7620"/>
+        <a:xfrm>
+          <a:off x="14827250" y="2771775"/>
+          <a:ext cx="2501900" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1426,12 +1433,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>96520</xdr:rowOff>
@@ -1443,8 +1450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14822805" y="3239770"/>
-          <a:ext cx="750570" cy="0"/>
+          <a:off x="14817725" y="3238500"/>
+          <a:ext cx="2527300" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1473,15 +1480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>17780</xdr:colOff>
+      <xdr:colOff>265430</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1489,26 +1496,26 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14835505" y="3712845"/>
-          <a:ext cx="737870" cy="8255"/>
+        <a:xfrm>
+          <a:off x="15083155" y="3711575"/>
+          <a:ext cx="629920" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1519,13 +1526,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>732155</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
@@ -1537,7 +1544,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18482310" y="2790190"/>
+          <a:off x="20732115" y="2790190"/>
           <a:ext cx="695960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1566,13 +1573,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -1584,7 +1591,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="20043140" y="2790825"/>
+          <a:off x="22292945" y="2790825"/>
           <a:ext cx="738505" cy="244475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1615,13 +1622,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>302895</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
@@ -1633,7 +1640,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="18741390" y="3207385"/>
+          <a:off x="20991195" y="3207385"/>
           <a:ext cx="7620" cy="1433830"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1659,13 +1666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
@@ -1677,7 +1684,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18725515" y="3200400"/>
+          <a:off x="20975320" y="3200400"/>
           <a:ext cx="412750" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1706,13 +1713,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
@@ -1724,7 +1731,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18482310" y="3704590"/>
+          <a:off x="20732115" y="3704590"/>
           <a:ext cx="2283460" cy="13970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1989,15 +1996,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>700405</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
+      <xdr:colOff>738505</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2006,7 +2013,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13544550" y="3728720"/>
+          <a:off x="13582650" y="4195445"/>
           <a:ext cx="325755" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2035,13 +2042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>207010</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>16510</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
@@ -2053,7 +2060,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="17632680" y="4826000"/>
+          <a:off x="19882485" y="4826000"/>
           <a:ext cx="4711700" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2079,13 +2086,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>199390</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -2097,7 +2104,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17625060" y="4331970"/>
+          <a:off x="19874865" y="4331970"/>
           <a:ext cx="6985" cy="494030"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2126,13 +2133,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>23495</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
@@ -2144,7 +2151,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23172420" y="3254375"/>
+          <a:off x="25422225" y="3254375"/>
           <a:ext cx="784225" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2173,13 +2180,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
@@ -2191,7 +2198,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23502620" y="3240405"/>
+          <a:off x="25752425" y="3240405"/>
           <a:ext cx="0" cy="1400810"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2217,13 +2224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
@@ -2235,7 +2242,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="23180675" y="4632960"/>
+          <a:off x="25430480" y="4632960"/>
           <a:ext cx="314325" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2311,16 +2318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>300355</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>309245</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2329,8 +2336,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15880080" y="4317365"/>
-          <a:ext cx="8890" cy="1194435"/>
+          <a:off x="17651730" y="4317365"/>
+          <a:ext cx="13970" cy="1445260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2359,15 +2366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>316865</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>102235</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2376,8 +2383,565 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15572105" y="5518785"/>
-          <a:ext cx="324485" cy="12700"/>
+          <a:off x="15694025" y="5766435"/>
+          <a:ext cx="1964690" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514985</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15703550" y="5991225"/>
+          <a:ext cx="6269355" cy="635"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>493395</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="21951315" y="3381375"/>
+          <a:ext cx="11430" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>125095</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15694025" y="6250305"/>
+          <a:ext cx="8246745" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23939500" y="4310380"/>
+          <a:ext cx="24765" cy="1976120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15684500" y="6457950"/>
+          <a:ext cx="9335135" cy="26670"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25025350" y="5237480"/>
+          <a:ext cx="8255" cy="1249045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>880110</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14812010" y="4618990"/>
+          <a:ext cx="3266440" cy="6985"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>302260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118745</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19677380" y="4618990"/>
+          <a:ext cx="1320800" cy="14605"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28649930" y="3248025"/>
+          <a:ext cx="635635" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29304615" y="3238500"/>
+          <a:ext cx="9525" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="25420955" y="5067300"/>
+          <a:ext cx="3912235" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21172170" y="2800350"/>
+          <a:ext cx="9525" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2403,25 +2967,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>756285</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>514985</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Connector 35"/>
+        <xdr:cNvPr id="50" name="Straight Connector 49"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15574010" y="5784850"/>
-          <a:ext cx="4149090" cy="6985"/>
+          <a:off x="15694025" y="6667500"/>
+          <a:ext cx="12507595" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2446,573 +3010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>493395</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133985</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19701510" y="3381375"/>
-          <a:ext cx="14605" cy="2410460"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>756285</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>163195</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15574010" y="5983605"/>
-          <a:ext cx="6155055" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="21714460" y="4310380"/>
-          <a:ext cx="6985" cy="1665605"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>470535</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Connector 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15581630" y="6241415"/>
-          <a:ext cx="7216775" cy="14605"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>455930</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="22783800" y="5247005"/>
-          <a:ext cx="7620" cy="994410"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>727075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14820265" y="4612005"/>
-          <a:ext cx="1486535" cy="14605"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>302260</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118745</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Connector 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17427575" y="4618990"/>
-          <a:ext cx="1320800" cy="14605"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Connector 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26400125" y="3248025"/>
-          <a:ext cx="635635" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Connector 44"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27054810" y="3238500"/>
-          <a:ext cx="9525" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="23171150" y="5067300"/>
-          <a:ext cx="3912235" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Connector 46"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18922365" y="2800350"/>
-          <a:ext cx="9525" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>504190</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Connector 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15602585" y="6448425"/>
-          <a:ext cx="10358755" cy="40640"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3020,9 +3027,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="25952450" y="4562475"/>
-          <a:ext cx="19050" cy="1885950"/>
+        <a:xfrm flipV="1">
+          <a:off x="28192730" y="4562475"/>
+          <a:ext cx="9525" cy="2105025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3050,13 +3057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3068,7 +3075,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18931890" y="4352925"/>
+          <a:off x="21181695" y="4352925"/>
           <a:ext cx="4925060" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3087,6 +3094,237 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15074900" y="2762250"/>
+          <a:ext cx="0" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14846300" y="4171950"/>
+          <a:ext cx="809625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16579850" y="3733800"/>
+          <a:ext cx="771525" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50041"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15713075" y="5543550"/>
+          <a:ext cx="447675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16170275" y="4314825"/>
+          <a:ext cx="0" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3356,10 +3594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AJ34"/>
+  <dimension ref="B2:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AA6" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -3374,12 +3612,12 @@
     <col min="10" max="10" width="4.66666666666667" customWidth="1"/>
     <col min="11" max="11" width="15.0444444444444" customWidth="1"/>
     <col min="12" max="12" width="20.0814814814815" customWidth="1"/>
-    <col min="22" max="22" width="10.3333333333333" customWidth="1"/>
-    <col min="25" max="25" width="12.6444444444444" customWidth="1"/>
-    <col min="26" max="26" width="11.9037037037037" customWidth="1"/>
-    <col min="28" max="28" width="9.72592592592593" customWidth="1"/>
-    <col min="32" max="32" width="9.83703703703704" customWidth="1"/>
-    <col min="36" max="36" width="13.9703703703704" customWidth="1"/>
+    <col min="22" max="24" width="10.3333333333333" customWidth="1"/>
+    <col min="27" max="27" width="18.2222222222222" customWidth="1"/>
+    <col min="28" max="28" width="11.9037037037037" customWidth="1"/>
+    <col min="30" max="30" width="9.72592592592593" customWidth="1"/>
+    <col min="34" max="34" width="9.83703703703704" customWidth="1"/>
+    <col min="38" max="38" width="13.9703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
@@ -3395,12 +3633,12 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="8"/>
-      <c r="N2" s="10" t="s">
+      <c r="L2" s="7"/>
+      <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="3" t="s">
@@ -3410,73 +3648,73 @@
         <v>3</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="5">
         <v>0</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3484,43 +3722,43 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="5">
         <v>0</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3537,14 +3775,14 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="10" t="s">
+      <c r="L6" s="7"/>
+      <c r="N6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="5">
         <v>1</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3556,31 +3794,31 @@
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="5">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
@@ -3591,34 +3829,34 @@
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3626,639 +3864,690 @@
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="14:16">
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="5"/>
     </row>
-    <row r="11" ht="18" spans="14:36">
-      <c r="N11" s="10" t="s">
+    <row r="11" ht="18" spans="14:38">
+      <c r="N11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="5">
         <v>0</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
     </row>
-    <row r="12" ht="18" spans="14:36">
-      <c r="N12" s="10" t="s">
+    <row r="12" ht="18" spans="14:38">
+      <c r="N12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="5">
         <v>0</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
     </row>
-    <row r="13" ht="18" spans="14:36">
-      <c r="N13" s="10" t="s">
+    <row r="13" ht="18" spans="14:38">
+      <c r="N13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="5">
         <v>1</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="18" t="s">
+      <c r="T13" s="10"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="12" t="s">
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="12" t="s">
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="13"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="10"/>
     </row>
-    <row r="14" ht="18" spans="14:36">
-      <c r="N14" s="10" t="s">
+    <row r="14" ht="18" spans="14:38">
+      <c r="N14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="5">
         <v>1</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="19" t="s">
+      <c r="S14" s="11"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="20" t="s">
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="35" t="s">
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="36" t="s">
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="40" t="s">
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="15"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="12"/>
     </row>
-    <row r="15" ht="18" spans="19:36">
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="15"/>
+    <row r="15" ht="18" spans="19:38">
+      <c r="S15" s="11"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="12"/>
     </row>
-    <row r="16" ht="18" spans="19:36">
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="19" t="s">
+    <row r="16" ht="18" spans="19:38">
+      <c r="S16" s="11"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="20" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="43" t="s">
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="40" t="s">
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AI16" s="48" t="s">
+      <c r="AK16" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AJ16" s="41"/>
+      <c r="AL16" s="30"/>
     </row>
-    <row r="17" ht="18" spans="2:36">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="41"/>
+    <row r="17" ht="18" spans="2:38">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="30"/>
     </row>
-    <row r="18" ht="18" spans="2:36">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="19" t="s">
+    <row r="18" ht="18" spans="2:38">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="20" t="s">
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="35" t="s">
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="40" t="s">
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="30"/>
+    </row>
+    <row r="19" ht="18" spans="2:38">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="30"/>
+    </row>
+    <row r="20" ht="18" spans="19:38">
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="41"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="30"/>
     </row>
-    <row r="19" ht="18" spans="2:36">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="41"/>
+    <row r="21" ht="18" spans="19:38">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="33" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="20" ht="18" spans="19:36">
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="41"/>
+    <row r="22" ht="18" spans="19:38">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
     </row>
-    <row r="21" ht="18" spans="19:36">
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="51" t="s">
-        <v>59</v>
-      </c>
+    <row r="23" ht="18" spans="19:38">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
     </row>
-    <row r="22" ht="18" spans="19:36">
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
+    <row r="24" ht="18" spans="19:38">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
     </row>
-    <row r="23" ht="18" spans="19:36">
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
+    <row r="25" ht="18" spans="19:38">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25" s="20"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
     </row>
-    <row r="24" ht="18" spans="19:36">
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
+    <row r="26" ht="18" spans="19:38">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="W26" s="25"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
     </row>
-    <row r="25" ht="18" spans="19:36">
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
+    <row r="27" ht="18" spans="19:38">
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="W27" s="27"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
     </row>
-    <row r="26" ht="18" spans="19:36">
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="W26" s="27"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
+    <row r="28" ht="18" spans="19:38">
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="W28" s="27"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
     </row>
-    <row r="27" ht="18" spans="19:36">
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="W27" s="29"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
+    <row r="29" ht="18" spans="19:38">
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="W29" s="27"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
     </row>
-    <row r="28" ht="18" spans="19:36">
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="W28" s="29"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
+    <row r="30" ht="18" spans="19:38">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W30" s="27"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
     </row>
-    <row r="29" ht="18" spans="19:36">
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
+    <row r="31" ht="18" spans="19:38">
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="W31" s="27"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
     </row>
-    <row r="30" ht="18" spans="19:36">
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="W30" s="29"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
+    <row r="32" ht="18" spans="19:38">
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
     </row>
-    <row r="31" ht="18" spans="19:36">
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
+    <row r="33" ht="18" spans="19:38">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
     </row>
-    <row r="32" ht="18" spans="19:36">
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-    </row>
-    <row r="33" ht="18" spans="19:36">
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-    </row>
-    <row r="34" ht="18" spans="19:36">
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
+    <row r="34" ht="18" spans="19:38">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="C3:D3"/>
@@ -4273,18 +4562,21 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="U25:W25"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AH22:AH24"/>
     <mergeCell ref="S13:T20"/>
-    <mergeCell ref="AH13:AJ15"/>
+    <mergeCell ref="AJ13:AL15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -22,22 +22,25 @@
     <t>Registradores</t>
   </si>
   <si>
+    <t>Conjunto</t>
+  </si>
+  <si>
     <t>Instruções</t>
   </si>
   <si>
-    <t xml:space="preserve">op 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rs</t>
-  </si>
-  <si>
-    <t>rt</t>
+    <t>op code
+ rs</t>
   </si>
   <si>
     <t>rd</t>
   </si>
   <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
     <t>Uso</t>
   </si>
   <si>
@@ -50,13 +53,16 @@
     <t>Endereços</t>
   </si>
   <si>
+    <t>Aritimetica</t>
+  </si>
+  <si>
     <t>add</t>
   </si>
   <si>
-    <t>add rs + rt = rd</t>
-  </si>
-  <si>
-    <t>add $s0, $s1, $s2</t>
+    <t>add  rd = rd + rs</t>
+  </si>
+  <si>
+    <t>add $s0, $s1</t>
   </si>
   <si>
     <t>Reg 1</t>
@@ -65,32 +71,107 @@
     <t>sub</t>
   </si>
   <si>
-    <t>sub rs + rt = rd</t>
-  </si>
-  <si>
-    <t>sub $s0, $s1, $s2</t>
+    <t>sub rd = rd - rs</t>
+  </si>
+  <si>
+    <t>sub $s0, $s1</t>
   </si>
   <si>
     <t>Reg 2</t>
   </si>
   <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>mult rd = rd * rs</t>
+  </si>
+  <si>
+    <t>mult $s0, $s1</t>
+  </si>
+  <si>
+    <t>Dado</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>move rd = rs</t>
+  </si>
+  <si>
+    <t>move $s0, $s1</t>
+  </si>
+  <si>
+    <t>Reg 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>li rd</t>
+  </si>
+  <si>
+    <t>li $rd</t>
+  </si>
+  <si>
+    <t>Memorias</t>
+  </si>
+  <si>
+    <t>indefinido</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Men 1</t>
+  </si>
+  <si>
+    <t>Men 2</t>
+  </si>
+  <si>
     <t>Tipo I 8-bits</t>
+  </si>
+  <si>
+    <t>Men 3</t>
+  </si>
+  <si>
+    <t>Banco de Registradores</t>
+  </si>
+  <si>
+    <t>ULA</t>
+  </si>
+  <si>
+    <t>Memory data</t>
   </si>
   <si>
     <t>op 
 func</t>
   </si>
   <si>
-    <t>rs</t>
+    <t>rt</t>
   </si>
   <si>
     <t>endereço</t>
   </si>
   <si>
-    <t>Reg 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Men 4</t>
+  </si>
+  <si>
+    <t>(2..3)</t>
+  </si>
+  <si>
+    <t>Ler reg 1</t>
+  </si>
+  <si>
+    <t>Saida Reg 1</t>
+  </si>
+  <si>
+    <t>Multx2</t>
+  </si>
+  <si>
+    <t>Entrada 1</t>
   </si>
   <si>
     <t>lw</t>
@@ -114,48 +195,6 @@
     <t>sw $s0, E($s1)</t>
   </si>
   <si>
-    <t>Memorias</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Men 1</t>
-  </si>
-  <si>
-    <t>Men 2</t>
-  </si>
-  <si>
-    <t>Men 3</t>
-  </si>
-  <si>
-    <t>Banco de Registradores</t>
-  </si>
-  <si>
-    <t>ULA</t>
-  </si>
-  <si>
-    <t>Memory data</t>
-  </si>
-  <si>
-    <t>Men 4</t>
-  </si>
-  <si>
-    <t>(2..3)</t>
-  </si>
-  <si>
-    <t>Ler reg 1</t>
-  </si>
-  <si>
-    <t>Saida Reg 1</t>
-  </si>
-  <si>
-    <t>Multx2</t>
-  </si>
-  <si>
-    <t>Entrada 1</t>
-  </si>
-  <si>
     <t>(4..5)</t>
   </si>
   <si>
@@ -186,9 +225,6 @@
     <t>reg write C</t>
   </si>
   <si>
-    <t>Dado</t>
-  </si>
-  <si>
     <t>Func</t>
   </si>
   <si>
@@ -210,10 +246,10 @@
     <t>Reg Write</t>
   </si>
   <si>
-    <t>ALU src</t>
-  </si>
-  <si>
-    <t>ULA OP</t>
+    <t>Alu src</t>
+  </si>
+  <si>
+    <t>alu OP</t>
   </si>
   <si>
     <t>MEMtoReg</t>
@@ -227,8 +263,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -263,9 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,29 +308,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -320,15 +332,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,15 +376,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,14 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,10 +420,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,7 +437,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,31 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,13 +509,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,97 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,81 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -747,6 +708,81 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -760,21 +796,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,6 +820,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,8 +877,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,24 +897,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,132 +914,132 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,23 +1057,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,92 +1171,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,13 +1248,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
@@ -1218,7 +1266,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13171805" y="3248025"/>
+          <a:off x="14492605" y="3248025"/>
           <a:ext cx="737870" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1247,13 +1295,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>374015</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>382905</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
@@ -1265,7 +1313,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13543915" y="2759075"/>
+          <a:off x="14864715" y="2759075"/>
           <a:ext cx="8890" cy="1874520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1291,13 +1339,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>700405</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -1309,7 +1357,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13544550" y="2799080"/>
+          <a:off x="14865350" y="2799080"/>
           <a:ext cx="325755" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1338,13 +1386,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>389890</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>761365</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
@@ -1356,7 +1404,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13559790" y="4625340"/>
+          <a:off x="14880590" y="4625340"/>
           <a:ext cx="371475" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1385,13 +1433,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -1403,7 +1451,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14827250" y="2771775"/>
+          <a:off x="16148050" y="2771775"/>
           <a:ext cx="2501900" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1432,13 +1480,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>96520</xdr:rowOff>
@@ -1450,7 +1498,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14817725" y="3238500"/>
+          <a:off x="16138525" y="3238500"/>
           <a:ext cx="2527300" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1479,13 +1527,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>265430</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1497,7 +1545,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15083155" y="3711575"/>
+          <a:off x="16403955" y="3711575"/>
           <a:ext cx="629920" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1526,13 +1574,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>732155</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
@@ -1544,7 +1592,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20732115" y="2790190"/>
+          <a:off x="22052915" y="2790190"/>
           <a:ext cx="695960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1573,13 +1621,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -1591,7 +1639,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22292945" y="2790825"/>
+          <a:off x="23613745" y="2790825"/>
           <a:ext cx="738505" cy="244475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1622,13 +1670,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>302895</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
@@ -1640,7 +1688,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="20991195" y="3207385"/>
+          <a:off x="22311995" y="3207385"/>
           <a:ext cx="7620" cy="1433830"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1666,13 +1714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
@@ -1684,7 +1732,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20975320" y="3200400"/>
+          <a:off x="22296120" y="3200400"/>
           <a:ext cx="412750" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1713,13 +1761,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
@@ -1731,7 +1779,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="20732115" y="3704590"/>
+          <a:off x="22052915" y="3704590"/>
           <a:ext cx="2283460" cy="13970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1760,13 +1808,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>356870</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1778,7 +1826,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="996315" y="0"/>
           <a:ext cx="356870" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1807,13 +1855,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>356870</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1825,7 +1873,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="996315" y="0"/>
           <a:ext cx="356870" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1854,13 +1902,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>356870</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1872,7 +1920,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="996315" y="0"/>
           <a:ext cx="356870" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1901,13 +1949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>356870</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1919,7 +1967,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="996315" y="0"/>
           <a:ext cx="356870" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1948,13 +1996,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>356870</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1966,7 +2014,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="996315" y="0"/>
           <a:ext cx="356870" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1995,13 +2043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>738505</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
@@ -2013,7 +2061,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13582650" y="4195445"/>
+          <a:off x="14903450" y="4195445"/>
           <a:ext cx="325755" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2042,13 +2090,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>207010</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>16510</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
@@ -2060,7 +2108,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="19882485" y="4826000"/>
+          <a:off x="21203285" y="4826000"/>
           <a:ext cx="4711700" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2086,13 +2134,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>199390</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -2104,7 +2152,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19874865" y="4331970"/>
+          <a:off x="21195665" y="4331970"/>
           <a:ext cx="6985" cy="494030"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2133,13 +2181,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>23495</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
@@ -2151,7 +2199,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25422225" y="3254375"/>
+          <a:off x="26743025" y="3254375"/>
           <a:ext cx="784225" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2180,13 +2228,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>331470</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
@@ -2198,7 +2246,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25752425" y="3240405"/>
+          <a:off x="27073225" y="3240405"/>
           <a:ext cx="0" cy="1400810"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2224,13 +2272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
@@ -2242,7 +2290,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="25430480" y="4632960"/>
+          <a:off x="26751280" y="4632960"/>
           <a:ext cx="314325" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2271,13 +2319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>382270</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>389890</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>184785</xdr:rowOff>
@@ -2289,7 +2337,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13552170" y="4603750"/>
+          <a:off x="14872970" y="4603750"/>
           <a:ext cx="7620" cy="553085"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2318,13 +2366,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>300355</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2336,7 +2384,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="17651730" y="4317365"/>
+          <a:off x="18972530" y="4317365"/>
           <a:ext cx="13970" cy="1445260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2365,13 +2413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>307340</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2383,7 +2431,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15694025" y="5766435"/>
+          <a:off x="17014825" y="5766435"/>
           <a:ext cx="1964690" cy="15240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2409,13 +2457,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>514985</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>105410</xdr:rowOff>
@@ -2427,7 +2475,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15703550" y="5991225"/>
+          <a:off x="17024350" y="5991225"/>
           <a:ext cx="6269355" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2453,13 +2501,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>493395</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2471,7 +2519,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="21951315" y="3381375"/>
+          <a:off x="23272115" y="3381375"/>
           <a:ext cx="11430" cy="2609850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2503,13 +2551,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>125095</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2521,7 +2569,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15694025" y="6250305"/>
+          <a:off x="17014825" y="6250305"/>
           <a:ext cx="8246745" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2552,13 +2600,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>148590</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -2570,7 +2618,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23939500" y="4310380"/>
+          <a:off x="25260300" y="4310380"/>
           <a:ext cx="24765" cy="1976120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2602,13 +2650,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
@@ -2620,7 +2668,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15684500" y="6457950"/>
+          <a:off x="17005300" y="6457950"/>
           <a:ext cx="9335135" cy="26670"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2646,13 +2694,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>455930</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -2664,7 +2712,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="25025350" y="5237480"/>
+          <a:off x="26346150" y="5237480"/>
           <a:ext cx="8255" cy="1249045"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2696,13 +2744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>880110</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>727075</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -2714,7 +2762,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14812010" y="4618990"/>
+          <a:off x="16132810" y="4618990"/>
           <a:ext cx="3266440" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2743,13 +2791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>302260</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
@@ -2761,7 +2809,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19677380" y="4618990"/>
+          <a:off x="20998180" y="4618990"/>
           <a:ext cx="1320800" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2787,13 +2835,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2805,7 +2853,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28649930" y="3248025"/>
+          <a:off x="29970730" y="3248025"/>
           <a:ext cx="635635" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2831,13 +2879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2849,7 +2897,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29304615" y="3238500"/>
+          <a:off x="30625415" y="3238500"/>
           <a:ext cx="9525" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2875,13 +2923,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2893,7 +2941,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="25420955" y="5067300"/>
+          <a:off x="26741755" y="5067300"/>
           <a:ext cx="3912235" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2922,13 +2970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2940,7 +2988,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21172170" y="2800350"/>
+          <a:off x="22492970" y="2800350"/>
           <a:ext cx="9525" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2966,13 +3014,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>494665</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2984,7 +3032,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15694025" y="6667500"/>
+          <a:off x="17014825" y="6667500"/>
           <a:ext cx="12507595" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3010,13 +3058,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3028,7 +3076,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="28192730" y="4562475"/>
+          <a:off x="29513530" y="4562475"/>
           <a:ext cx="9525" cy="2105025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3057,13 +3105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3075,7 +3123,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21181695" y="4352925"/>
+          <a:off x="22502495" y="4352925"/>
           <a:ext cx="4925060" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3104,13 +3152,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3122,7 +3170,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15074900" y="2762250"/>
+          <a:off x="16395700" y="2762250"/>
           <a:ext cx="0" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3148,13 +3196,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3166,7 +3214,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14846300" y="4171950"/>
+          <a:off x="16167100" y="4171950"/>
           <a:ext cx="809625" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3195,13 +3243,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3213,7 +3261,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16579850" y="3733800"/>
+          <a:off x="17900650" y="3733800"/>
           <a:ext cx="771525" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3244,13 +3292,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3262,7 +3310,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15713075" y="5543550"/>
+          <a:off x="17033875" y="5543550"/>
           <a:ext cx="447675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3288,13 +3336,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3306,7 +3354,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16170275" y="4314825"/>
+          <a:off x="17491075" y="4314825"/>
           <a:ext cx="0" cy="1228725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3594,33 +3642,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AL34"/>
+  <dimension ref="B2:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AA6" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26:W31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="3.75555555555556" customWidth="1"/>
-    <col min="4" max="4" width="3.92592592592593" customWidth="1"/>
-    <col min="5" max="5" width="3.68148148148148" customWidth="1"/>
-    <col min="6" max="6" width="2.81481481481481" customWidth="1"/>
-    <col min="7" max="7" width="3.42222222222222" customWidth="1"/>
-    <col min="8" max="8" width="2.9037037037037" customWidth="1"/>
-    <col min="9" max="9" width="4.44444444444444" customWidth="1"/>
-    <col min="10" max="10" width="4.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.0444444444444" customWidth="1"/>
-    <col min="12" max="12" width="20.0814814814815" customWidth="1"/>
-    <col min="22" max="24" width="10.3333333333333" customWidth="1"/>
-    <col min="27" max="27" width="18.2222222222222" customWidth="1"/>
-    <col min="28" max="28" width="11.9037037037037" customWidth="1"/>
-    <col min="30" max="30" width="9.72592592592593" customWidth="1"/>
-    <col min="34" max="34" width="9.83703703703704" customWidth="1"/>
-    <col min="38" max="38" width="13.9703703703704" customWidth="1"/>
+    <col min="1" max="1" width="11.6222222222222" customWidth="1"/>
+    <col min="2" max="2" width="14.1037037037037" customWidth="1"/>
+    <col min="3" max="3" width="9.74074074074074" customWidth="1"/>
+    <col min="4" max="4" width="3.75555555555556" customWidth="1"/>
+    <col min="5" max="5" width="3.92592592592593" customWidth="1"/>
+    <col min="6" max="6" width="3.68148148148148" customWidth="1"/>
+    <col min="7" max="7" width="2.81481481481481" customWidth="1"/>
+    <col min="8" max="8" width="3.42222222222222" customWidth="1"/>
+    <col min="9" max="9" width="2.9037037037037" customWidth="1"/>
+    <col min="10" max="10" width="3.58518518518518" customWidth="1"/>
+    <col min="11" max="11" width="3.24444444444444" customWidth="1"/>
+    <col min="12" max="12" width="15.0444444444444" customWidth="1"/>
+    <col min="13" max="13" width="20.0814814814815" customWidth="1"/>
+    <col min="23" max="25" width="10.3333333333333" customWidth="1"/>
+    <col min="28" max="28" width="18.2222222222222" customWidth="1"/>
+    <col min="29" max="29" width="11.9037037037037" customWidth="1"/>
+    <col min="31" max="31" width="9.72592592592593" customWidth="1"/>
+    <col min="35" max="35" width="9.83703703703704" customWidth="1"/>
+    <col min="39" max="39" width="13.9703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3633,950 +3684,1080 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:17">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:17">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="O10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" ht="18" spans="15:39">
+      <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+    </row>
+    <row r="12" ht="18" spans="15:39">
+      <c r="O12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+    </row>
+    <row r="13" ht="18" spans="2:39">
+      <c r="B13" s="3"/>
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="19"/>
+      <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="24"/>
+    </row>
+    <row r="14" ht="18" spans="2:39">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="O14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="22"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="25"/>
+    </row>
+    <row r="15" ht="18" spans="2:39">
+      <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="22"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="25"/>
     </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+    <row r="16" ht="18" spans="2:39">
+      <c r="B16" s="15"/>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="22"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM16" s="32"/>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="7"/>
-      <c r="N6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
+    <row r="17" ht="18" spans="3:39">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="32"/>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
+    <row r="18" ht="18" spans="3:39">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="32"/>
+    </row>
+    <row r="19" ht="18" spans="3:39">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="32"/>
+    </row>
+    <row r="20" ht="18" spans="20:39">
+      <c r="T20" s="23"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35" t="s">
         <v>24</v>
       </c>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="32"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>28</v>
+    <row r="21" ht="18" spans="20:39">
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+    <row r="22" ht="18" spans="20:39">
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
     </row>
-    <row r="10" spans="14:16">
-      <c r="N10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="5"/>
+    <row r="23" ht="18" spans="20:39">
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
     </row>
-    <row r="11" ht="18" spans="14:38">
-      <c r="N11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+    <row r="24" ht="18" spans="20:39">
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
     </row>
-    <row r="12" ht="18" spans="14:38">
-      <c r="N12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
+    <row r="25" ht="18" spans="20:39">
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="W25" s="28"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
     </row>
-    <row r="13" ht="18" spans="14:38">
-      <c r="N13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="10"/>
+    <row r="26" ht="18" spans="20:39">
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
     </row>
-    <row r="14" ht="18" spans="14:38">
-      <c r="N14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="12"/>
+    <row r="27" ht="18" spans="20:39">
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
     </row>
-    <row r="15" ht="18" spans="19:38">
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="12"/>
+    <row r="28" ht="18" spans="20:39">
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
     </row>
-    <row r="16" ht="18" spans="19:38">
-      <c r="S16" s="11"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL16" s="30"/>
+    <row r="29" ht="18" spans="20:39">
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
     </row>
-    <row r="17" ht="18" spans="2:38">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="30"/>
+    <row r="30" ht="18" spans="20:39">
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
     </row>
-    <row r="18" ht="18" spans="2:38">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="30"/>
+    <row r="31" ht="18" spans="20:39">
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
     </row>
-    <row r="19" ht="18" spans="2:38">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="30"/>
+    <row r="32" ht="18" spans="20:39">
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
     </row>
-    <row r="20" ht="18" spans="19:38">
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="30"/>
+    <row r="33" ht="18" spans="20:39">
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
     </row>
-    <row r="21" ht="18" spans="19:38">
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="18" spans="19:38">
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-    </row>
-    <row r="23" ht="18" spans="19:38">
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-    </row>
-    <row r="24" ht="18" spans="19:38">
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-    </row>
-    <row r="25" ht="18" spans="19:38">
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="V25" s="20"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-    </row>
-    <row r="26" ht="18" spans="19:38">
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-    </row>
-    <row r="27" ht="18" spans="19:38">
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="W27" s="27"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-    </row>
-    <row r="28" ht="18" spans="19:38">
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="W28" s="27"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-    </row>
-    <row r="29" ht="18" spans="19:38">
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="W29" s="27"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
-    </row>
-    <row r="30" ht="18" spans="19:38">
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W30" s="27"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-    </row>
-    <row r="31" ht="18" spans="19:38">
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="W31" s="27"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-    </row>
-    <row r="32" ht="18" spans="19:38">
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-    </row>
-    <row r="33" ht="18" spans="19:38">
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-    </row>
-    <row r="34" ht="18" spans="19:38">
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
+    <row r="34" ht="18" spans="20:39">
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="S13:T20"/>
-    <mergeCell ref="AJ13:AL15"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AI22:AI24"/>
+    <mergeCell ref="T13:U20"/>
+    <mergeCell ref="AK13:AM15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -80,16 +80,7 @@
     <t>Reg 2</t>
   </si>
   <si>
-    <t>mult</t>
-  </si>
-  <si>
-    <t>mult rd = rd * rs</t>
-  </si>
-  <si>
-    <t>mult $s0, $s1</t>
-  </si>
-  <si>
-    <t>Dado</t>
+    <t>dado</t>
   </si>
   <si>
     <t>move</t>
@@ -101,64 +92,91 @@
     <t>move $s0, $s1</t>
   </si>
   <si>
+    <t>Tipo I 8-bits</t>
+  </si>
+  <si>
     <t>Reg 4</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>li rd</t>
-  </si>
-  <si>
-    <t>li $rd</t>
-  </si>
-  <si>
-    <t>Memorias</t>
-  </si>
-  <si>
-    <t>indefinido</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Men 1</t>
-  </si>
-  <si>
-    <t>Men 2</t>
-  </si>
-  <si>
-    <t>Tipo I 8-bits</t>
-  </si>
-  <si>
-    <t>Men 3</t>
-  </si>
-  <si>
-    <t>Banco de Registradores</t>
-  </si>
-  <si>
-    <t>ULA</t>
-  </si>
-  <si>
-    <t>Memory data</t>
   </si>
   <si>
     <t>op 
 func</t>
   </si>
   <si>
-    <t>rt</t>
-  </si>
-  <si>
     <t>endereço</t>
   </si>
   <si>
+    <t>Dado</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>add rd = 15</t>
+  </si>
+  <si>
+    <t>mult $s0, 8</t>
+  </si>
+  <si>
+    <t>Memorias</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>lw rs, endereço(rt)</t>
+  </si>
+  <si>
+    <t>lw $s0, E($s1)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sw rs, endereço(rt)</t>
+  </si>
+  <si>
+    <t>sw $s0, E($s1)</t>
+  </si>
+  <si>
+    <t>Men 1</t>
+  </si>
+  <si>
+    <t>Men 2</t>
+  </si>
+  <si>
+    <t>Men 3</t>
+  </si>
+  <si>
+    <t>Banco de instruções</t>
+  </si>
+  <si>
+    <t>Divisor</t>
+  </si>
+  <si>
+    <t>Banco de Registradores</t>
+  </si>
+  <si>
+    <t>ULA</t>
+  </si>
+  <si>
+    <t>Memory data</t>
+  </si>
+  <si>
     <t>Men 4</t>
   </si>
   <si>
+    <t>reg1</t>
+  </si>
+  <si>
     <t>(2..3)</t>
   </si>
   <si>
@@ -168,31 +186,22 @@
     <t>Saida Reg 1</t>
   </si>
   <si>
+    <t>Entrada 1</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
     <t>Multx2</t>
   </si>
   <si>
-    <t>Entrada 1</t>
-  </si>
-  <si>
-    <t>lw</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>lw rs, endereço(rt)</t>
-  </si>
-  <si>
-    <t>lw $s0, E($s1)</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>sw rs, endereço(rt)</t>
-  </si>
-  <si>
-    <t>sw $s0, E($s1)</t>
+    <t>saida</t>
+  </si>
+  <si>
+    <t>Instrução</t>
+  </si>
+  <si>
+    <t>reg2</t>
   </si>
   <si>
     <t>(4..5)</t>
@@ -219,13 +228,16 @@
     <t>Entrada 2</t>
   </si>
   <si>
+    <t>endereço I</t>
+  </si>
+  <si>
     <t>(6..7)</t>
   </si>
   <si>
     <t>reg write C</t>
   </si>
   <si>
-    <t>Func</t>
+    <t>alu op</t>
   </si>
   <si>
     <t>dado de escrita</t>
@@ -234,25 +246,37 @@
     <t>Controle L - R</t>
   </si>
   <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>(4..7)</t>
+  </si>
+  <si>
     <t>Exten 2 to 8 bits</t>
   </si>
   <si>
+    <t>Multx4</t>
+  </si>
+  <si>
+    <t>exten 4 to 8</t>
+  </si>
+  <si>
+    <t>0         1       2        3</t>
+  </si>
+  <si>
     <t>Controlador</t>
   </si>
   <si>
-    <t>Reg Dst</t>
-  </si>
-  <si>
-    <t>Reg Write</t>
+    <t>Reg data</t>
+  </si>
+  <si>
+    <t>reg write</t>
   </si>
   <si>
     <t>Alu src</t>
   </si>
   <si>
     <t>alu OP</t>
-  </si>
-  <si>
-    <t>MEMtoReg</t>
   </si>
   <si>
     <t>MENwrite</t>
@@ -263,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -292,20 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -314,25 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,28 +348,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -385,6 +386,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -392,14 +400,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,7 +429,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -421,10 +437,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,7 +461,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,49 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,121 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,10 +755,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -748,26 +792,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -810,6 +834,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -820,6 +868,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,30 +913,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -873,171 +921,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,42 +1084,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1118,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1118,67 +1133,166 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,13 +1362,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
@@ -1266,7 +1380,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14492605" y="3248025"/>
+          <a:off x="16138525" y="3248025"/>
           <a:ext cx="737870" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1295,16 +1409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>374015</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>382905</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118745</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1312,9 +1426,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="14864715" y="2759075"/>
-          <a:ext cx="8890" cy="1874520"/>
+        <a:xfrm flipV="1">
+          <a:off x="16508095" y="3267075"/>
+          <a:ext cx="19050" cy="3905250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1339,107 +1453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>700405</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14865350" y="2799080"/>
-          <a:ext cx="325755" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>761365</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14880590" y="4625340"/>
-          <a:ext cx="371475" cy="1270"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -1451,8 +1471,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16148050" y="2771775"/>
-          <a:ext cx="2501900" cy="3175"/>
+          <a:off x="19632295" y="2762250"/>
+          <a:ext cx="1851025" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1480,13 +1500,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>96520</xdr:rowOff>
@@ -1498,8 +1518,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16138525" y="3238500"/>
-          <a:ext cx="2527300" cy="1270"/>
+          <a:off x="19632295" y="3238500"/>
+          <a:ext cx="1866900" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1527,14 +1547,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>265430</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1545,8 +1565,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16403955" y="3711575"/>
-          <a:ext cx="629920" cy="3175"/>
+          <a:off x="20118070" y="3695700"/>
+          <a:ext cx="1358900" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1574,13 +1594,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>732155</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
@@ -1592,7 +1612,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22052915" y="2790190"/>
+          <a:off x="24886285" y="2790190"/>
           <a:ext cx="695960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1621,13 +1641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -1639,7 +1659,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23613745" y="2790825"/>
+          <a:off x="26447115" y="2790825"/>
           <a:ext cx="738505" cy="244475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1670,13 +1690,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>302895</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
@@ -1688,7 +1708,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="22311995" y="3207385"/>
+          <a:off x="25145365" y="3207385"/>
           <a:ext cx="7620" cy="1433830"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1714,13 +1734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
@@ -1732,7 +1752,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22296120" y="3200400"/>
+          <a:off x="25129490" y="3200400"/>
           <a:ext cx="412750" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1761,13 +1781,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
@@ -1779,7 +1799,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22052915" y="3704590"/>
+          <a:off x="24886285" y="3704590"/>
           <a:ext cx="2283460" cy="13970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2043,151 +2063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>738505</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14903450" y="4195445"/>
-          <a:ext cx="325755" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="21203285" y="4826000"/>
-          <a:ext cx="4711700" cy="14605"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>199390</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21195665" y="4331970"/>
-          <a:ext cx="6985" cy="494030"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>23495</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
@@ -2199,7 +2081,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26743025" y="3254375"/>
+          <a:off x="29576395" y="3254375"/>
           <a:ext cx="784225" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2228,16 +2110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>332105</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2246,8 +2128,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27073225" y="3240405"/>
-          <a:ext cx="0" cy="1400810"/>
+          <a:off x="29905960" y="3240405"/>
+          <a:ext cx="1270" cy="2754630"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2272,110 +2154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="26751280" y="4632960"/>
-          <a:ext cx="314325" cy="14605"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>382270</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14872970" y="4603750"/>
-          <a:ext cx="7620" cy="553085"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>300355</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>233045</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>300355</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2383,9 +2171,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="18972530" y="4317365"/>
-          <a:ext cx="13970" cy="1445260"/>
+        <a:xfrm flipV="1">
+          <a:off x="21738590" y="4317365"/>
+          <a:ext cx="67310" cy="2355215"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2413,26 +2201,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>307340</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>514985</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Connector 34"/>
+        <xdr:cNvPr id="36" name="Straight Connector 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17014825" y="5766435"/>
-          <a:ext cx="1964690" cy="15240"/>
+        <a:xfrm>
+          <a:off x="19622770" y="6934200"/>
+          <a:ext cx="6504305" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2457,60 +2245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>514985</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Connector 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17024350" y="5991225"/>
-          <a:ext cx="6269355" cy="635"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>493395</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2519,8 +2263,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="23272115" y="3381375"/>
-          <a:ext cx="11430" cy="2609850"/>
+          <a:off x="26105485" y="3381375"/>
+          <a:ext cx="1905" cy="3533775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2551,16 +2295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>125095</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>115570</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2569,8 +2313,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17014825" y="6250305"/>
-          <a:ext cx="8246745" cy="7620"/>
+          <a:off x="19603720" y="7145655"/>
+          <a:ext cx="8481695" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2600,16 +2344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2618,8 +2362,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="25260300" y="4310380"/>
-          <a:ext cx="24765" cy="1976120"/>
+          <a:off x="28084145" y="4310380"/>
+          <a:ext cx="34290" cy="2861945"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2650,154 +2394,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Connector 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17005300" y="6457950"/>
-          <a:ext cx="9335135" cy="26670"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>455930</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="26346150" y="5237480"/>
-          <a:ext cx="8255" cy="1249045"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>880110</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>727075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16132810" y="4618990"/>
-          <a:ext cx="3266440" cy="6985"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>302260</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
@@ -2809,7 +2412,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="20998180" y="4618990"/>
+          <a:off x="23831550" y="4618990"/>
           <a:ext cx="1320800" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2835,13 +2438,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2853,8 +2456,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29970730" y="3248025"/>
-          <a:ext cx="635635" cy="0"/>
+          <a:off x="33285430" y="3248025"/>
+          <a:ext cx="361950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2879,16 +2482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>399415</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2897,8 +2500,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30625415" y="3238500"/>
-          <a:ext cx="9525" cy="1895475"/>
+          <a:off x="33665795" y="3238500"/>
+          <a:ext cx="15875" cy="2993390"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2923,60 +2526,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="26741755" y="5067300"/>
-          <a:ext cx="3912235" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2988,7 +2544,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22492970" y="2800350"/>
+          <a:off x="25326340" y="2800350"/>
           <a:ext cx="9525" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3014,16 +2570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>494665</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>523240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3032,8 +2588,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17014825" y="6667500"/>
-          <a:ext cx="12507595" cy="0"/>
+          <a:off x="19641820" y="7419975"/>
+          <a:ext cx="12950190" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3058,16 +2614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3076,8 +2632,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="29513530" y="4562475"/>
-          <a:ext cx="9525" cy="2105025"/>
+          <a:off x="32554545" y="4562475"/>
+          <a:ext cx="9525" cy="2847975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3105,13 +2661,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3123,7 +2679,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22502495" y="4352925"/>
+          <a:off x="25335865" y="4352925"/>
           <a:ext cx="4925060" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3152,16 +2708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3170,7 +2726,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16395700" y="2762250"/>
+          <a:off x="20137120" y="2752725"/>
           <a:ext cx="0" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3196,26 +2752,114 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="11" name="Straight Connector 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16167100" y="4171950"/>
-          <a:ext cx="809625" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="19640550" y="6680835"/>
+          <a:ext cx="2113915" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25845770" y="3714115"/>
+          <a:ext cx="4445" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="0"/>
+          <a:ext cx="371475" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3243,30 +2887,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvPr id="56" name="Elbow Connector 55"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17900650" y="3733800"/>
-          <a:ext cx="771525" cy="200025"/>
+        <a:xfrm>
+          <a:off x="19641820" y="4133850"/>
+          <a:ext cx="2597150" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50041"/>
+            <a:gd name="adj1" fmla="val 50027"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3292,26 +2936,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvPr id="60" name="Straight Connector 59"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17033875" y="5543550"/>
-          <a:ext cx="447675" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="22991445" y="6086475"/>
+          <a:ext cx="0" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3336,26 +2980,670 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13738225" y="3028950"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16489045" y="7162800"/>
+          <a:ext cx="342900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25513665" y="5846445"/>
+          <a:ext cx="353695" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>647065</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>654685</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>216535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="25497155" y="5675630"/>
+          <a:ext cx="7620" cy="198755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17491075" y="4314825"/>
-          <a:ext cx="0" cy="1228725"/>
+          <a:off x="25016460" y="5981700"/>
+          <a:ext cx="4872990" cy="13335"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>697230</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24526875" y="6215380"/>
+          <a:ext cx="9195435" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>886460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1550035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Elbow Connector 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19622770" y="5334000"/>
+          <a:ext cx="4194810" cy="1151255"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19624040" y="4623435"/>
+          <a:ext cx="554355" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>547370</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20170140" y="5528310"/>
+          <a:ext cx="10795" cy="515620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133985</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20178395" y="6036310"/>
+          <a:ext cx="3785235" cy="8255"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23973155" y="5683885"/>
+          <a:ext cx="14605" cy="368935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>713740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>721995</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24543385" y="5692140"/>
+          <a:ext cx="8255" cy="531495"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24991060" y="5683885"/>
+          <a:ext cx="8255" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>994410</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Elbow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="24185880" y="4328795"/>
+          <a:ext cx="655320" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20192365" y="4625340"/>
+          <a:ext cx="11430" cy="584835"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3642,10 +3930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AM34"/>
+  <dimension ref="B2:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Y10" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -3663,12 +3951,17 @@
     <col min="11" max="11" width="3.24444444444444" customWidth="1"/>
     <col min="12" max="12" width="15.0444444444444" customWidth="1"/>
     <col min="13" max="13" width="20.0814814814815" customWidth="1"/>
-    <col min="23" max="25" width="10.3333333333333" customWidth="1"/>
-    <col min="28" max="28" width="18.2222222222222" customWidth="1"/>
-    <col min="29" max="29" width="11.9037037037037" customWidth="1"/>
-    <col min="31" max="31" width="9.72592592592593" customWidth="1"/>
-    <col min="35" max="35" width="9.83703703703704" customWidth="1"/>
-    <col min="39" max="39" width="13.9703703703704" customWidth="1"/>
+    <col min="23" max="23" width="10.3111111111111" customWidth="1"/>
+    <col min="25" max="25" width="10.3333333333333" customWidth="1"/>
+    <col min="26" max="26" width="11.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="10.3333333333333" customWidth="1"/>
+    <col min="28" max="28" width="13.0740740740741" customWidth="1"/>
+    <col min="31" max="31" width="18.2222222222222" customWidth="1"/>
+    <col min="32" max="32" width="11.9037037037037" customWidth="1"/>
+    <col min="34" max="34" width="9.72592592592593" customWidth="1"/>
+    <col min="38" max="38" width="9.83703703703704" customWidth="1"/>
+    <col min="40" max="40" width="11.3111111111111" customWidth="1"/>
+    <col min="42" max="42" width="13.9703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
@@ -3685,73 +3978,73 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="18"/>
-      <c r="O2" s="7" t="s">
+      <c r="M2" s="14"/>
+      <c r="O2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3">
@@ -3760,43 +4053,43 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="3">
@@ -3805,26 +4098,28 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>0</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -3851,75 +4146,83 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="M6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="15"/>
+      <c r="O7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="7" t="s">
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -3934,798 +4237,902 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="O9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="O10" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="3"/>
     </row>
-    <row r="11" ht="18" spans="15:39">
-      <c r="O11" s="7" t="s">
+    <row r="11" ht="18" spans="2:42">
+      <c r="B11" s="11"/>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="7">
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="3">
         <v>0</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
     </row>
-    <row r="12" ht="18" spans="15:39">
-      <c r="O12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="7">
+    <row r="12" ht="18" spans="15:42">
+      <c r="O12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
     </row>
-    <row r="13" ht="18" spans="2:39">
-      <c r="B13" s="3"/>
-      <c r="C13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="19"/>
-      <c r="O13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="7">
+    <row r="13" ht="18" spans="15:42">
+      <c r="O13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="3">
         <v>1</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="24"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="24"/>
+      <c r="V13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="55"/>
     </row>
-    <row r="14" ht="18" spans="2:39">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="7">
+    <row r="14" ht="18" spans="15:42">
+      <c r="O14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="25"/>
       <c r="V14" s="20"/>
-      <c r="W14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="25"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="65">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="21"/>
     </row>
-    <row r="15" ht="18" spans="2:39">
-      <c r="B15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="7">
+    <row r="15" ht="18" spans="20:42">
+      <c r="T15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="21"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="21"/>
+    </row>
+    <row r="16" ht="18" spans="22:42">
+      <c r="V16" s="20"/>
+      <c r="W16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="67">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="25"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO16" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP16" s="31"/>
     </row>
-    <row r="16" ht="18" spans="2:39">
-      <c r="B16" s="15"/>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="29" t="s">
+    <row r="17" ht="18" spans="3:42">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="31"/>
+    </row>
+    <row r="18" ht="18" spans="3:42">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="31"/>
+    </row>
+    <row r="19" ht="18" spans="3:42">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="31"/>
+    </row>
+    <row r="20" ht="18" spans="22:42">
+      <c r="V20" s="22"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA20" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="31"/>
+    </row>
+    <row r="21" ht="18" spans="22:42">
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="22:42">
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+    </row>
+    <row r="23" ht="18" spans="22:42">
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+    </row>
+    <row r="24" ht="18" spans="22:42">
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+    </row>
+    <row r="25" ht="18" spans="22:42">
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+    </row>
+    <row r="26" ht="18" spans="22:42">
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+    </row>
+    <row r="27" ht="18" spans="22:42">
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+    </row>
+    <row r="28" ht="18" spans="22:42">
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+    </row>
+    <row r="29" ht="18" spans="22:42">
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+    </row>
+    <row r="30" ht="18" spans="22:42">
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+    </row>
+    <row r="31" ht="18" spans="22:42">
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+    </row>
+    <row r="32" ht="18" spans="22:42">
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+    </row>
+    <row r="33" ht="18" spans="22:42">
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL16" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM16" s="32"/>
+      <c r="Z33" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
     </row>
-    <row r="17" ht="18" spans="3:39">
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="32"/>
+    <row r="34" ht="18" spans="22:42">
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
     </row>
-    <row r="18" ht="18" spans="3:39">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="32"/>
+    <row r="35" ht="18" spans="22:42">
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
     </row>
-    <row r="19" ht="18" spans="3:39">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="32"/>
+    <row r="36" ht="18" spans="22:42">
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
     </row>
-    <row r="20" ht="18" spans="20:39">
-      <c r="T20" s="23"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="32"/>
+    <row r="37" ht="18" spans="22:42">
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
     </row>
-    <row r="21" ht="18" spans="20:39">
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="35" t="s">
-        <v>71</v>
-      </c>
+    <row r="38" ht="18" spans="22:42">
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
     </row>
-    <row r="22" ht="18" spans="20:39">
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-    </row>
-    <row r="23" ht="18" spans="20:39">
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-    </row>
-    <row r="24" ht="18" spans="20:39">
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-    </row>
-    <row r="25" ht="18" spans="20:39">
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="W25" s="28"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-    </row>
-    <row r="26" ht="18" spans="20:39">
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-    </row>
-    <row r="27" ht="18" spans="20:39">
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-    </row>
-    <row r="28" ht="18" spans="20:39">
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-    </row>
-    <row r="29" ht="18" spans="20:39">
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-    </row>
-    <row r="30" ht="18" spans="20:39">
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-    </row>
-    <row r="31" ht="18" spans="20:39">
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-    </row>
-    <row r="32" ht="18" spans="20:39">
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-    </row>
-    <row r="33" ht="18" spans="20:39">
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-    </row>
-    <row r="34" ht="18" spans="20:39">
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
+    <row r="39" ht="18" spans="22:42">
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4736,28 +5143,28 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="Y18:Y20"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AI22:AI24"/>
-    <mergeCell ref="T13:U20"/>
-    <mergeCell ref="AK13:AM15"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -336,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -364,8 +364,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,8 +395,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -394,33 +418,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,7 +434,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,17 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,28 +472,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,10 +486,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,19 +523,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,37 +595,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,25 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,37 +649,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,31 +691,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +864,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -879,13 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,39 +935,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,8 +947,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,152 +957,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,13 +1136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1157,9 +1151,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,13 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,20 +1238,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1913,7 +1886,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20516215" y="1847850"/>
+          <a:off x="20659090" y="1847850"/>
           <a:ext cx="400050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1957,7 +1930,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20915630" y="1847850"/>
+          <a:off x="21058505" y="1847850"/>
           <a:ext cx="15875" cy="2983865"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2046,7 +2019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6905625" y="5981700"/>
-          <a:ext cx="12829540" cy="0"/>
+          <a:ext cx="12972415" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2089,7 +2062,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19735165" y="3162300"/>
+          <a:off x="19878040" y="3162300"/>
           <a:ext cx="9525" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2559,7 +2532,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 58763"/>
+            <a:gd name="adj1" fmla="val 43416"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2880,7 +2853,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="12071985" y="4828540"/>
-          <a:ext cx="8862695" cy="19685"/>
+          <a:ext cx="9005570" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3320,9 +3293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>476885</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3332,7 +3305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1057275" y="666750"/>
-          <a:ext cx="16420465" cy="57150"/>
+          <a:ext cx="16383000" cy="29210"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3402,15 +3375,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>459740</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>459740</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -3419,8 +3392,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17468215" y="714375"/>
-          <a:ext cx="0" cy="685800"/>
+          <a:off x="17423130" y="713105"/>
+          <a:ext cx="0" cy="701040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3739,675 +3712,675 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="49"/>
-      <c r="O2" s="38" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="44"/>
+      <c r="O2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="S2" s="50" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="S3" s="51" t="s">
+      <c r="Q3" s="33"/>
+      <c r="S3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:27">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="33">
         <v>0</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="33">
         <v>0</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="33">
         <v>0</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="33">
         <v>0</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="33">
         <v>0</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="33">
         <v>0</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="46">
         <v>0</v>
       </c>
-      <c r="U4" s="54">
+      <c r="U4" s="46">
         <v>0.1</v>
       </c>
-      <c r="V4" s="54">
+      <c r="V4" s="46">
         <v>0</v>
       </c>
-      <c r="W4" s="54">
+      <c r="W4" s="46">
         <v>0</v>
       </c>
-      <c r="X4" s="54">
+      <c r="X4" s="46">
         <v>0</v>
       </c>
-      <c r="Y4" s="54">
+      <c r="Y4" s="46">
         <v>0</v>
       </c>
-      <c r="Z4" s="54">
+      <c r="Z4" s="46">
         <v>1</v>
       </c>
-      <c r="AA4" s="50">
+      <c r="AA4" s="33">
         <f>T4+U4+V4+W4+X4+Y4+Z4</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="2:27">
-      <c r="B5" s="41"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="33">
         <v>0</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="33">
         <v>0</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="33">
         <v>1</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="33">
         <v>0</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="33">
         <v>1</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54">
+      <c r="T5" s="46"/>
+      <c r="U5" s="46">
         <v>0.1</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="50">
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="33">
         <f t="shared" ref="AA5:AA10" si="0">T5+U5+V5+W5+X5+Y5+Z5</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="33">
         <v>0</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="33">
         <v>0</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="33">
         <v>1</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="33">
         <v>0</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="33">
         <v>1</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="33">
         <v>0</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54">
+      <c r="T6" s="46"/>
+      <c r="U6" s="46">
         <v>0.1</v>
       </c>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="50">
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="2:27">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="O7" s="38" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="O7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="33">
         <v>1</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="33">
         <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54">
+      <c r="T7" s="46"/>
+      <c r="U7" s="46">
         <v>0.1</v>
       </c>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="50">
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="2:27">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="38" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54">
+      <c r="T8" s="46"/>
+      <c r="U8" s="46">
         <v>0.1</v>
       </c>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="50">
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:27">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="38">
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="38">
         <v>0</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="38">
         <v>1</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="38">
         <v>1</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="S9" s="53" t="s">
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="S9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54">
+      <c r="T9" s="46"/>
+      <c r="U9" s="46">
         <v>0.1</v>
       </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="50">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="15:27">
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="38"/>
-      <c r="S10" s="53" t="s">
+      <c r="Q10" s="33"/>
+      <c r="S10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54">
+      <c r="T10" s="46"/>
+      <c r="U10" s="46">
         <v>0.1</v>
       </c>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="50">
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="33">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="49"/>
-      <c r="O11" s="38" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="44"/>
+      <c r="O11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="33">
         <v>0</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="44"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="33">
         <v>0</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="33">
         <v>0</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="33">
         <v>1</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="33">
         <v>1</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="33">
         <v>1</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="33">
         <v>0</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="33">
         <v>1</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="47"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="33">
         <v>1</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19">
         <v>0</v>
       </c>
       <c r="E19">
@@ -4463,7 +4436,7 @@
   <dimension ref="C4:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O1" sqref="O$1:O$1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
@@ -4475,6 +4448,7 @@
     <col min="14" max="14" width="13.1111111111111" customWidth="1"/>
     <col min="15" max="15" width="6.65925925925926" customWidth="1"/>
     <col min="20" max="20" width="11.1111111111111" customWidth="1"/>
+    <col min="22" max="22" width="10.5555555555556" customWidth="1"/>
     <col min="24" max="24" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4532,28 +4506,28 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
     </row>
     <row r="7" ht="18" spans="4:24">
       <c r="D7" s="2"/>
@@ -4563,7 +4537,7 @@
       <c r="H7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="1"/>
@@ -4572,11 +4546,11 @@
         <v>68</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="31">
+      <c r="P7" s="26">
         <v>0</v>
       </c>
       <c r="Q7" s="1"/>
@@ -4584,13 +4558,13 @@
         <v>70</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="7" t="s">
         <v>71</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="10"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="34"/>
+      <c r="X7" s="29"/>
     </row>
     <row r="8" ht="18" spans="4:24">
       <c r="D8" s="2"/>
@@ -4600,24 +4574,24 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="25"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="15" t="s">
         <v>73</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="8"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="25"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="1"/>
       <c r="V8" s="10"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="34"/>
+      <c r="X8" s="29"/>
     </row>
     <row r="9" ht="18" spans="4:24">
       <c r="D9" s="2"/>
@@ -4629,7 +4603,7 @@
       <c r="H9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="7" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="1"/>
@@ -4637,25 +4611,25 @@
         <v>77</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="25"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="32">
+      <c r="P9" s="27">
         <v>1</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="8"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="25"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" ht="18" spans="4:24">
       <c r="D10" s="2"/>
@@ -4663,22 +4637,22 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="25"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="8"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="25"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="1"/>
       <c r="V10" s="8"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="25"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" ht="18" spans="4:24">
       <c r="D11" s="2"/>
@@ -4686,14 +4660,14 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="8" t="s">
         <v>81</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="7" t="s">
         <v>82</v>
       </c>
       <c r="O11" s="1"/>
@@ -4703,11 +4677,11 @@
         <v>83</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="25"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="1"/>
       <c r="V11" s="8"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="25"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" ht="18" spans="3:24">
       <c r="C12" s="3" t="s">
@@ -4720,22 +4694,22 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="25"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="8"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="25"/>
+      <c r="T12" s="7"/>
       <c r="U12" s="1"/>
       <c r="V12" s="8"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="25"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" ht="18" spans="4:24">
       <c r="D13" s="2"/>
@@ -4745,38 +4719,38 @@
       <c r="H13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="26" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="22" t="s">
         <v>56</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15" t="s">
+      <c r="R13" s="12"/>
+      <c r="S13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="T13" s="26"/>
+      <c r="T13" s="22"/>
       <c r="U13" s="1"/>
       <c r="V13" s="8"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="25"/>
+      <c r="X13" s="7"/>
     </row>
     <row r="14" ht="18" spans="4:24">
       <c r="D14" s="1"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4789,29 +4763,29 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="33" t="s">
+      <c r="V14" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="26" t="s">
+      <c r="W14" s="18"/>
+      <c r="X14" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" ht="18" spans="4:24">
       <c r="D15" s="1"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="26"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="21" t="s">
         <v>94</v>
       </c>
       <c r="N15" s="1"/>
@@ -4859,10 +4833,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="24"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -4883,9 +4857,9 @@
       <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="25"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4903,14 +4877,14 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="33" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="30"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -4969,12 +4943,12 @@
     <row r="22" ht="18" spans="4:24">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="28"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -4993,13 +4967,13 @@
     <row r="23" ht="18" spans="4:24">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="29"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
@@ -5019,11 +4993,11 @@
     <row r="24" ht="18" spans="4:24">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
@@ -5042,13 +5016,13 @@
     <row r="25" ht="18" spans="4:24">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
@@ -5068,11 +5042,11 @@
     <row r="26" ht="18" spans="4:24">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
@@ -5092,11 +5066,11 @@
     <row r="27" ht="18" spans="4:24">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="1"/>
@@ -5121,7 +5095,7 @@
         <v>103</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="23"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
@@ -5142,9 +5116,9 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="1"/>

--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -235,7 +235,7 @@
     <t>zero</t>
   </si>
   <si>
-    <t>loop_func (2bit)</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Multx2</t>
@@ -336,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -372,11 +372,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +387,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -396,22 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,7 +464,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -434,14 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,14 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -470,34 +493,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,25 +523,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,43 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,19 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,55 +613,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +661,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,15 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -879,15 +870,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -899,6 +881,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,17 +946,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -957,142 +957,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3679,8 +3679,8 @@
   <sheetPr/>
   <dimension ref="B2:AA19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
@@ -4435,7 +4435,7 @@
   <sheetPr/>
   <dimension ref="C4:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -111,13 +111,16 @@
     <t>dado</t>
   </si>
   <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>move rd = rs</t>
+  </si>
+  <si>
+    <t>move $s0, $s1</t>
+  </si>
+  <si>
     <t>move</t>
-  </si>
-  <si>
-    <t>move rd = rs</t>
-  </si>
-  <si>
-    <t>move $s0, $s1</t>
   </si>
   <si>
     <t>Tipo R 8-bits loop</t>
@@ -208,6 +211,15 @@
     <t>sw $s0, E($s1)</t>
   </si>
   <si>
+    <t>bew 1 = 2, 2</t>
+  </si>
+  <si>
+    <t>int valor = valor + 1</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
     <t>Banco de Instruções / pc</t>
   </si>
   <si>
@@ -217,7 +229,10 @@
     <t>Memory data</t>
   </si>
   <si>
-    <t>reg1</t>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>rest</t>
   </si>
   <si>
     <t>(2..3)</t>
@@ -235,24 +250,24 @@
     <t>zero</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Multx2</t>
   </si>
   <si>
-    <t>Instrução</t>
-  </si>
-  <si>
-    <t>reg2</t>
-  </si>
-  <si>
     <t>(4..5)</t>
   </si>
   <si>
     <t>Ler reg 2</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -262,6 +277,12 @@
     <t>Resultado da leitura</t>
   </si>
   <si>
+    <t>instrução</t>
+  </si>
+  <si>
+    <t>jump_func</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escrever Reg </t>
   </si>
   <si>
@@ -271,21 +292,15 @@
     <t>Entrada 2</t>
   </si>
   <si>
-    <t>clk</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>endereço I</t>
-  </si>
-  <si>
     <t>(6..7)</t>
   </si>
   <si>
     <t>reg write C</t>
   </si>
   <si>
+    <t>Dado 3</t>
+  </si>
+  <si>
     <t>alu op</t>
   </si>
   <si>
@@ -295,28 +310,25 @@
     <t>Controle L - R</t>
   </si>
   <si>
+    <t>Exten 2 to 8 bits</t>
+  </si>
+  <si>
+    <t>Multx4</t>
+  </si>
+  <si>
+    <t>A         B       C        D</t>
+  </si>
+  <si>
+    <t>op_code</t>
+  </si>
+  <si>
+    <t>Reg data</t>
+  </si>
+  <si>
+    <t>reg write</t>
+  </si>
+  <si>
     <t>Func</t>
-  </si>
-  <si>
-    <t>op code</t>
-  </si>
-  <si>
-    <t>Exten 2 to 8 bits</t>
-  </si>
-  <si>
-    <t>Multx4</t>
-  </si>
-  <si>
-    <t>A         B       C        D</t>
-  </si>
-  <si>
-    <t>op_code</t>
-  </si>
-  <si>
-    <t>Reg data</t>
-  </si>
-  <si>
-    <t>reg write</t>
   </si>
   <si>
     <t>Alu src</t>
@@ -336,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -379,6 +391,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -390,6 +409,82 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,59 +506,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -472,37 +514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,7 +541,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +577,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,43 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,55 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,25 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -720,33 +732,31 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -786,8 +796,41 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -819,9 +862,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -835,7 +876,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -870,6 +913,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -890,26 +942,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +978,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -957,139 +1000,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,146 +1145,188 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,13 +1394,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>589280</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
@@ -1327,7 +1412,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12392025" y="1390015"/>
+          <a:off x="13773150" y="1390015"/>
           <a:ext cx="570865" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1356,13 +1441,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
@@ -1374,7 +1459,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13726160" y="1390650"/>
+          <a:off x="15107285" y="1390650"/>
           <a:ext cx="738505" cy="244475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1405,13 +1490,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
@@ -1423,7 +1508,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12687300" y="1876425"/>
+          <a:off x="14068425" y="1876425"/>
           <a:ext cx="0" cy="1352550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1449,13 +1534,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>587375</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131446</xdr:rowOff>
@@ -1467,7 +1552,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12687300" y="1874520"/>
+          <a:off x="14068425" y="1874520"/>
           <a:ext cx="275590" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1496,13 +1581,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
@@ -1514,7 +1599,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12392025" y="2304415"/>
+          <a:off x="13773150" y="2304415"/>
           <a:ext cx="2094865" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1543,13 +1628,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -1561,7 +1646,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16964660" y="1854200"/>
+          <a:off x="18507710" y="1854200"/>
           <a:ext cx="760730" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1590,13 +1675,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>330835</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>330835</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1608,7 +1693,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17294225" y="1857375"/>
+          <a:off x="18837275" y="1857375"/>
           <a:ext cx="0" cy="2762250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1634,13 +1719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>300356</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>31117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>300357</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
@@ -1652,7 +1737,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8729980" y="2917190"/>
+          <a:off x="10111105" y="2917190"/>
           <a:ext cx="0" cy="2378075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1681,13 +1766,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1699,7 +1784,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="5534025"/>
+          <a:off x="8286750" y="5534025"/>
           <a:ext cx="6550025" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1725,13 +1810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493395</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493396</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
@@ -1743,7 +1828,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13456285" y="1981200"/>
+          <a:off x="14837410" y="1981200"/>
           <a:ext cx="0" cy="3553460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1775,13 +1860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -1793,8 +1878,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6907530" y="5753100"/>
-          <a:ext cx="8643620" cy="0"/>
+          <a:off x="8288655" y="5753100"/>
+          <a:ext cx="8805545" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1824,13 +1909,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
@@ -1842,7 +1927,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11269980" y="3233420"/>
+          <a:off x="12651105" y="3233420"/>
           <a:ext cx="1417320" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1868,13 +1953,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1886,7 +1971,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20659090" y="1847850"/>
+          <a:off x="22202140" y="1847850"/>
           <a:ext cx="400050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1912,13 +1997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>399464</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>415290</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
@@ -1930,7 +2015,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21058505" y="1847850"/>
+          <a:off x="22601555" y="1847850"/>
           <a:ext cx="15875" cy="2983865"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1956,13 +2041,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1974,7 +2059,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12792075" y="1400175"/>
+          <a:off x="14173200" y="1400175"/>
           <a:ext cx="0" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2000,13 +2085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2018,8 +2103,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="5981700"/>
-          <a:ext cx="12972415" cy="0"/>
+          <a:off x="8286750" y="5981700"/>
+          <a:ext cx="13134340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2044,13 +2129,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>485867</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2062,7 +2147,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19878040" y="3162300"/>
+          <a:off x="21421090" y="3162300"/>
           <a:ext cx="9525" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2091,13 +2176,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
@@ -2109,8 +2194,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12801600" y="3031490"/>
-          <a:ext cx="4934585" cy="0"/>
+          <a:off x="14182725" y="3031490"/>
+          <a:ext cx="5096510" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2138,13 +2223,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -2156,7 +2241,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13201015" y="2313940"/>
+          <a:off x="14582140" y="2313940"/>
           <a:ext cx="0" cy="2200910"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2182,13 +2267,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -2200,7 +2285,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10458450" y="4686300"/>
+          <a:off x="11839575" y="4686300"/>
           <a:ext cx="0" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2226,13 +2311,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>514985</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
@@ -2244,7 +2329,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12907010" y="4511675"/>
+          <a:off x="14288135" y="4511675"/>
           <a:ext cx="294005" cy="2540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2270,13 +2355,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>501015</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>501015</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
@@ -2288,7 +2373,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12893040" y="4265930"/>
+          <a:off x="14274165" y="4265930"/>
           <a:ext cx="0" cy="248285"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2317,13 +2402,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
@@ -2335,7 +2420,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6908165" y="3924300"/>
+          <a:off x="8289290" y="3924300"/>
           <a:ext cx="4350385" cy="1160780"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2366,13 +2451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>809625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>224790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>809626</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
@@ -2384,7 +2469,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12077700" y="4253865"/>
+          <a:off x="13458825" y="4253865"/>
           <a:ext cx="0" cy="574675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2413,13 +2498,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>373382</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>790576</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2431,7 +2516,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="11519535" y="3032760"/>
+          <a:off x="12900660" y="3032760"/>
           <a:ext cx="660400" cy="417195"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2463,15 +2548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1129665</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>817245</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681990</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2480,8 +2565,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="2581275"/>
-          <a:ext cx="723900" cy="0"/>
+          <a:off x="3539490" y="2081530"/>
+          <a:ext cx="685800" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2509,13 +2594,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
@@ -2527,7 +2612,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="2769235"/>
+          <a:off x="8286750" y="2769235"/>
           <a:ext cx="2828925" cy="468630"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2558,16 +2643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:rowOff>76835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>761365</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -2576,8 +2661,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="1397635"/>
-          <a:ext cx="1524000" cy="0"/>
+          <a:off x="8291830" y="1362710"/>
+          <a:ext cx="1518285" cy="20320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2605,13 +2690,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
@@ -2623,7 +2708,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7622540" y="1397635"/>
+          <a:off x="9003665" y="1397635"/>
           <a:ext cx="0" cy="902970"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2649,13 +2734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
@@ -2667,7 +2752,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="1854835"/>
+          <a:off x="8286750" y="1854835"/>
           <a:ext cx="1524000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2696,13 +2781,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
@@ -2714,7 +2799,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7622540" y="2312035"/>
+          <a:off x="9003665" y="2312035"/>
           <a:ext cx="807085" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2743,13 +2828,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
@@ -2761,7 +2846,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="5295265"/>
+          <a:off x="8286750" y="5295265"/>
           <a:ext cx="1826260" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2787,13 +2872,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>122208</xdr:rowOff>
@@ -2805,7 +2890,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15551150" y="2886075"/>
+          <a:off x="17094200" y="2886075"/>
           <a:ext cx="0" cy="2865120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2834,13 +2919,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>803910</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>418465</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2852,8 +2937,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12071985" y="4828540"/>
-          <a:ext cx="9005570" cy="19685"/>
+          <a:off x="13453110" y="4828540"/>
+          <a:ext cx="9167495" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2878,13 +2963,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2896,8 +2981,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12411075" y="4619625"/>
-          <a:ext cx="4885690" cy="0"/>
+          <a:off x="13792200" y="4619625"/>
+          <a:ext cx="5047615" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2922,13 +3007,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2940,7 +3025,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12411075" y="4257675"/>
+          <a:off x="13792200" y="4257675"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2969,164 +3054,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvPr id="42" name="Straight Connector 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3933825" y="3333750"/>
-          <a:ext cx="9525" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3905250" y="5048250"/>
-          <a:ext cx="609600" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3267075" y="5534025"/>
-          <a:ext cx="1209675" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Connector 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="3400425"/>
-          <a:ext cx="28575" cy="2143125"/>
+          <a:off x="1073785" y="6181725"/>
+          <a:ext cx="4758690" cy="26035"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3152,25 +3099,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Connector 41"/>
+        <xdr:cNvPr id="43" name="Straight Connector 42"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1019175" y="6181725"/>
-          <a:ext cx="3556000" cy="19050"/>
+        <a:xfrm flipV="1">
+          <a:off x="1087755" y="743585"/>
+          <a:ext cx="47625" cy="5495925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3196,29 +3143,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>354965</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>692785</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Connector 42"/>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1009650" y="676275"/>
-          <a:ext cx="47625" cy="5495925"/>
+          <a:off x="1116965" y="2332990"/>
+          <a:ext cx="337820" cy="5080"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3240,25 +3190,201 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1085215" y="695960"/>
+          <a:ext cx="17897475" cy="36830"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18517870" y="1400175"/>
+          <a:ext cx="455295" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18966180" y="713105"/>
+          <a:ext cx="0" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="1628775"/>
-          <a:ext cx="2000250" cy="9525"/>
+          <a:off x="6690360" y="2104390"/>
+          <a:ext cx="515620" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>499745</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526415</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7214870" y="1444625"/>
+          <a:ext cx="26670" cy="3185160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3266,6 +3392,138 @@
         <a:ln>
           <a:tailEnd type="arrow"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526415</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1002665</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7241540" y="1444625"/>
+          <a:ext cx="476250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7228205" y="1888490"/>
+          <a:ext cx="519430" cy="13335"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526415</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7241540" y="2734945"/>
+          <a:ext cx="435610" cy="13335"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3287,39 +3545,42 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>476885</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>615315</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Connector 44"/>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057275" y="666750"/>
-          <a:ext cx="16383000" cy="29210"/>
+          <a:off x="794385" y="1657985"/>
+          <a:ext cx="582930" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3330,84 +3591,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>639445</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16974820" y="1400175"/>
-          <a:ext cx="455295" cy="9525"/>
+        <a:xfrm>
+          <a:off x="818515" y="1398270"/>
+          <a:ext cx="582930" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>459740</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>459740</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Connector 46"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17423130" y="713105"/>
-          <a:ext cx="0" cy="701040"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3679,8 +3899,8 @@
   <sheetPr/>
   <dimension ref="B2:AA19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
@@ -3712,675 +3932,681 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="44"/>
-      <c r="O2" s="33" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="58"/>
+      <c r="O2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="S2" s="33" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
     </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="S3" s="45" t="s">
+      <c r="Q3" s="47"/>
+      <c r="S3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AA3" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:27">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="47">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="47">
         <v>0</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="47">
         <v>0</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="47">
         <v>0</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="47">
         <v>0</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="47">
         <v>0</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="60">
         <v>0</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="60">
         <v>0.1</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4" s="60">
         <v>0</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4" s="60">
         <v>0</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="60">
         <v>0</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="60">
         <v>0</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="60">
         <v>1</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="47">
         <f>T4+U4+V4+W4+X4+Y4+Z4</f>
         <v>1.1</v>
       </c>
     </row>
     <row r="5" spans="2:27">
-      <c r="B5" s="36"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="47">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="47">
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="47">
         <v>0</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="47">
         <v>1</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="47">
         <v>0</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="47">
         <v>1</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46">
+      <c r="T5" s="60"/>
+      <c r="U5" s="60">
         <v>0.1</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="33">
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="47">
         <f t="shared" ref="AA5:AA10" si="0">T5+U5+V5+W5+X5+Y5+Z5</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="47">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="47">
         <v>0</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="47">
         <v>1</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="47">
         <v>0</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="47">
         <v>1</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="47">
         <v>0</v>
       </c>
-      <c r="S6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46">
+      <c r="S6" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60">
+        <v>0</v>
+      </c>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="O7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60">
         <v>0.1</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="33">
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="O7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46">
+    <row r="8" spans="2:27">
+      <c r="B8" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60">
         <v>0.1</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="33">
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="31" t="s">
+    <row r="9" spans="2:27">
+      <c r="B9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46">
+      <c r="C9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="52">
+        <v>1</v>
+      </c>
+      <c r="K9" s="52">
+        <v>1</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="S9" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60">
         <v>0.1</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="33">
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="38">
-        <v>0</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="38">
-        <v>1</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="S9" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46">
+    <row r="10" spans="15:27">
+      <c r="O10" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="47"/>
+      <c r="S10" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60">
         <v>0.1</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="33">
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="15:27">
-      <c r="O10" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="33"/>
-      <c r="S10" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="33">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="44"/>
-      <c r="O11" s="33" t="s">
+      <c r="B11" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="33">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="58"/>
+      <c r="O11" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="47">
         <v>0</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="39"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="33">
+      <c r="O12" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="47">
         <v>0</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="B13" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="47">
         <v>0</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="33" t="s">
+      <c r="J13" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="K13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="M13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="33">
+      <c r="O13" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="47">
         <v>1</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="33">
+      <c r="B14" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="47">
         <v>1</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="47">
         <v>0</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="33" t="s">
+      <c r="J14" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="K14" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="M14" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="33">
+      <c r="O14" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="47">
         <v>1</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="42"/>
-      <c r="C15" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="B15" s="56"/>
+      <c r="C15" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="33" t="s">
+      <c r="J15" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="47" t="s">
         <v>62</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+    <row r="18" spans="3:13">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="19"/>
-      <c r="D19" s="19">
+    <row r="19" spans="3:11">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32">
         <v>0</v>
       </c>
       <c r="E19">
@@ -4400,6 +4626,9 @@
       </c>
       <c r="J19">
         <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4433,794 +4662,829 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:X32"/>
+  <dimension ref="A4:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
   <cols>
-    <col min="8" max="8" width="11.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="6.55555555555556" customWidth="1"/>
-    <col min="12" max="12" width="15.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="17.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="13.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="6.65925925925926" customWidth="1"/>
-    <col min="20" max="20" width="11.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="10.5555555555556" customWidth="1"/>
-    <col min="24" max="24" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="17.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="6.65925925925926" customWidth="1"/>
+    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
+    <col min="21" max="21" width="11.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="10.5555555555556" customWidth="1"/>
+    <col min="25" max="25" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18" spans="4:24">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+    <row r="4" ht="18" spans="5:25">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
     </row>
-    <row r="5" ht="18" spans="4:24">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+    <row r="5" ht="18" spans="5:25">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
     </row>
-    <row r="6" ht="18" spans="4:24">
+    <row r="6" ht="18" spans="3:25">
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="21" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
     </row>
-    <row r="7" ht="18" spans="4:24">
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
+    <row r="7" ht="18" spans="1:25">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="41">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="44"/>
+    </row>
+    <row r="8" ht="18" spans="1:25">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="14">
+        <v>1</v>
+      </c>
+      <c r="U8" s="21"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="44"/>
+    </row>
+    <row r="9" ht="18" spans="3:25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="42">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y9" s="21"/>
+    </row>
+    <row r="10" ht="18" spans="3:25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="29"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="14">
+        <v>2</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="21"/>
     </row>
-    <row r="8" ht="18" spans="4:24">
-      <c r="D8" s="2"/>
-      <c r="E8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="29"/>
+    <row r="11" ht="18" spans="3:25">
+      <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="21"/>
     </row>
-    <row r="9" ht="18" spans="4:24">
-      <c r="D9" s="2"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" s="7"/>
+    <row r="12" ht="18" spans="3:25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="21"/>
     </row>
-    <row r="10" ht="18" spans="4:24">
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="7"/>
+    <row r="13" ht="18" spans="3:25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="26"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="21"/>
     </row>
-    <row r="11" ht="18" spans="4:24">
-      <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="7"/>
+    <row r="14" ht="18" spans="3:25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="26" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="12" ht="18" spans="3:24">
-      <c r="C12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="7"/>
+    <row r="15" ht="18" spans="3:25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
     </row>
-    <row r="13" ht="18" spans="4:24">
-      <c r="D13" s="2"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="7"/>
+    <row r="16" ht="18" spans="5:25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
     </row>
-    <row r="14" ht="18" spans="4:24">
-      <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="W14" s="18"/>
-      <c r="X14" s="22" t="s">
-        <v>91</v>
-      </c>
+    <row r="17" ht="18" spans="5:25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
     </row>
-    <row r="15" ht="18" spans="4:24">
-      <c r="D15" s="1"/>
-      <c r="E15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+    <row r="18" ht="18" spans="5:25">
+      <c r="E18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
     </row>
-    <row r="16" ht="18" spans="4:24">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+    <row r="19" ht="18" spans="4:25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
     </row>
-    <row r="17" ht="18" spans="4:24">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+    <row r="20" ht="18" spans="4:25">
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
     </row>
-    <row r="18" ht="18" spans="4:24">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
+    <row r="21" ht="18" spans="3:25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
     </row>
-    <row r="19" ht="18" spans="4:24">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+    <row r="22" ht="18" spans="5:25">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
     </row>
-    <row r="20" ht="18" spans="4:24">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
+    <row r="23" ht="18" spans="5:25">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
     </row>
-    <row r="21" ht="18" spans="4:24">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
+    <row r="24" ht="18" spans="5:25">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
     </row>
-    <row r="22" ht="18" spans="4:24">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+    <row r="25" ht="18" spans="5:25">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
     </row>
-    <row r="23" ht="18" spans="4:24">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+    <row r="26" ht="18" spans="5:25">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
     </row>
-    <row r="24" ht="18" spans="4:24">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
+    <row r="27" ht="18" spans="5:25">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
     </row>
-    <row r="25" ht="18" spans="4:24">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+    <row r="28" ht="18" spans="5:25">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
     </row>
-    <row r="26" ht="18" spans="4:24">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+    <row r="29" ht="18" spans="5:25">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
     </row>
-    <row r="27" ht="18" spans="4:24">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
+    <row r="30" ht="18" spans="5:25">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
     </row>
-    <row r="28" ht="18" spans="4:24">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+    <row r="31" ht="18" spans="5:25">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
     </row>
-    <row r="29" ht="18" spans="4:24">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" ht="18" spans="4:24">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" ht="18" spans="4:24">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" ht="18" spans="4:24">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
+    <row r="32" ht="18" spans="5:25">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="G28:I28"/>
+  <mergeCells count="16">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" r:id="rId1"/>
     <sheet name="DataPah" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -111,9 +111,6 @@
     <t>dado</t>
   </si>
   <si>
-    <t>li</t>
-  </si>
-  <si>
     <t>move rd = rs</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Ler reg 2</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Multx4</t>
   </si>
   <si>
-    <t>A         B       C        D</t>
-  </si>
-  <si>
     <t>op_code</t>
   </si>
   <si>
@@ -341,19 +332,16 @@
   </si>
   <si>
     <t>Loop Func</t>
+  </si>
+  <si>
+    <t>A       B         C       D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,152 +363,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,194 +377,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -897,490 +555,204 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1391,21 +763,21 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>589280</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
         <xdr:cNvCxnSpPr/>
@@ -1441,18 +813,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Elbow Connector 2"/>
         <xdr:cNvCxnSpPr/>
@@ -1490,18 +862,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Connector 3"/>
         <xdr:cNvCxnSpPr/>
@@ -1534,18 +906,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>587375</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131446</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
@@ -1581,18 +953,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
@@ -1628,18 +1000,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
@@ -1675,18 +1047,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>330835</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>330835</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Straight Connector 7"/>
         <xdr:cNvCxnSpPr/>
@@ -1719,18 +1091,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>300356</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>31117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>300357</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
@@ -1766,18 +1138,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Connector 9"/>
         <xdr:cNvCxnSpPr/>
@@ -1810,18 +1182,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>493395</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>493396</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
@@ -1860,18 +1232,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="Straight Connector 11"/>
         <xdr:cNvCxnSpPr/>
@@ -1909,18 +1281,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="Straight Connector 12"/>
         <xdr:cNvCxnSpPr/>
@@ -1953,18 +1325,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Connector 13"/>
         <xdr:cNvCxnSpPr/>
@@ -1997,18 +1369,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>399464</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>415290</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14"/>
         <xdr:cNvCxnSpPr/>
@@ -2041,26 +1413,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="Straight Connector 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14173200" y="1400175"/>
-          <a:ext cx="0" cy="1628775"/>
+          <a:off x="12185650" y="1409700"/>
+          <a:ext cx="0" cy="1717675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2085,18 +1457,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Connector 16"/>
         <xdr:cNvCxnSpPr/>
@@ -2129,18 +1501,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>485867</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
@@ -2176,26 +1548,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14182725" y="3031490"/>
-          <a:ext cx="5096510" cy="0"/>
+          <a:off x="12192000" y="3111500"/>
+          <a:ext cx="4113306" cy="18677"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2223,18 +1595,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Connector 19"/>
         <xdr:cNvCxnSpPr/>
@@ -2267,18 +1639,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Connector 20"/>
         <xdr:cNvCxnSpPr/>
@@ -2311,18 +1683,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>514985</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Straight Connector 21"/>
         <xdr:cNvCxnSpPr/>
@@ -2355,18 +1727,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>501015</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>501015</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
@@ -2402,18 +1774,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Elbow Connector 23"/>
         <xdr:cNvCxnSpPr/>
@@ -2451,26 +1823,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>224790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>809626</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>454026</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13458825" y="4253865"/>
-          <a:ext cx="0" cy="574675"/>
+          <a:off x="11579225" y="4415790"/>
+          <a:ext cx="1" cy="613409"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2498,18 +1870,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>373382</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>790576</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Elbow Connector 25"/>
         <xdr:cNvCxnSpPr/>
@@ -2547,18 +1919,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1129665</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Conector de seta reta 41"/>
         <xdr:cNvCxnSpPr/>
@@ -2594,18 +1966,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="Conector angulado 80"/>
         <xdr:cNvCxnSpPr/>
@@ -2643,18 +2015,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>761365</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Conector de seta reta 83"/>
         <xdr:cNvCxnSpPr/>
@@ -2690,18 +2062,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Conector reto 87"/>
         <xdr:cNvCxnSpPr/>
@@ -2734,18 +2106,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Conector de seta reta 91"/>
         <xdr:cNvCxnSpPr/>
@@ -2781,18 +2153,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="Conector de seta reta 113"/>
         <xdr:cNvCxnSpPr/>
@@ -2828,18 +2200,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Conector reto 123"/>
         <xdr:cNvCxnSpPr/>
@@ -2872,18 +2244,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>122208</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="Conector de seta reta 134"/>
         <xdr:cNvCxnSpPr/>
@@ -2919,26 +2291,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>803910</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:rowOff>113666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>418465</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="Conector reto 157"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13453110" y="4828540"/>
-          <a:ext cx="9167495" cy="19685"/>
+          <a:off x="11582400" y="5028566"/>
+          <a:ext cx="7568565" cy="13334"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2963,18 +2335,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Conector reto 161"/>
         <xdr:cNvCxnSpPr/>
@@ -3007,18 +2379,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Conector de seta reta 164"/>
         <xdr:cNvCxnSpPr/>
@@ -3054,18 +2426,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>311785</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="Straight Connector 41"/>
         <xdr:cNvCxnSpPr/>
@@ -3098,18 +2470,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="Straight Connector 42"/>
         <xdr:cNvCxnSpPr/>
@@ -3142,18 +2514,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>354965</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>692785</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
@@ -3189,18 +2561,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>323215</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="Straight Connector 44"/>
         <xdr:cNvCxnSpPr/>
@@ -3233,18 +2605,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Straight Connector 45"/>
         <xdr:cNvCxnSpPr/>
@@ -3277,18 +2649,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>459740</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>459740</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46"/>
         <xdr:cNvCxnSpPr/>
@@ -3321,18 +2693,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>490855</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="Straight Connector 47"/>
         <xdr:cNvCxnSpPr/>
@@ -3365,18 +2737,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>499745</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>526415</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
         <xdr:cNvCxnSpPr/>
@@ -3412,18 +2784,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>526415</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1002665</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="Straight Connector 50"/>
         <xdr:cNvCxnSpPr/>
@@ -3456,18 +2828,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>513080</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="Straight Connector 51"/>
         <xdr:cNvCxnSpPr/>
@@ -3500,18 +2872,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>526415</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>90805</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="Straight Connector 52"/>
         <xdr:cNvCxnSpPr/>
@@ -3544,18 +2916,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>32385</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>615315</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
         <xdr:cNvCxnSpPr/>
@@ -3591,18 +2963,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>56515</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>639445</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
         <xdr:cNvCxnSpPr/>
@@ -3891,722 +3263,722 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703703703704" customWidth="1"/>
-    <col min="2" max="3" width="12.7111111111111" customWidth="1"/>
-    <col min="4" max="4" width="3.71111111111111" customWidth="1"/>
-    <col min="5" max="5" width="3.85185185185185" customWidth="1"/>
-    <col min="6" max="9" width="3.71111111111111" customWidth="1"/>
-    <col min="10" max="10" width="4.71111111111111" customWidth="1"/>
-    <col min="11" max="11" width="5.28148148148148" customWidth="1"/>
-    <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.1407407407407" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="10.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="19.5555555555556" customWidth="1"/>
-    <col min="23" max="23" width="5.5037037037037" customWidth="1"/>
-    <col min="24" max="24" width="15.7777777777778" customWidth="1"/>
-    <col min="25" max="26" width="14.5555555555556" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="10.2814814814815" customWidth="1"/>
-    <col min="29" max="29" width="14.8518518518519" customWidth="1"/>
-    <col min="32" max="32" width="18.2814814814815" customWidth="1"/>
-    <col min="33" max="33" width="14.5703703703704" customWidth="1"/>
-    <col min="35" max="35" width="9.71111111111111" customWidth="1"/>
-    <col min="39" max="39" width="12.4222222222222" customWidth="1"/>
-    <col min="41" max="41" width="11.2814814814815" customWidth="1"/>
-    <col min="43" max="43" width="16.2814814814815" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="9.7109375" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" customWidth="1"/>
+    <col min="43" max="43" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="58"/>
-      <c r="O2" s="47" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="O2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="S2" s="47" t="s">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="S2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
     </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="S3" s="59" t="s">
+      <c r="Q3" s="39"/>
+      <c r="S3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="2:27" ht="15.75">
+      <c r="B4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="31">
         <v>0</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="31">
         <v>0</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="31">
         <v>0</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="31">
         <v>0</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="31">
         <v>0</v>
       </c>
-      <c r="S4" s="60" t="s">
+      <c r="S4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="60">
+      <c r="T4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="60">
+      <c r="U4" s="35">
         <v>0.1</v>
       </c>
-      <c r="V4" s="60">
+      <c r="V4" s="35">
         <v>0</v>
       </c>
-      <c r="W4" s="60">
+      <c r="W4" s="35">
         <v>0</v>
       </c>
-      <c r="X4" s="60">
+      <c r="X4" s="35">
         <v>0</v>
       </c>
-      <c r="Y4" s="60">
+      <c r="Y4" s="35">
         <v>0</v>
       </c>
-      <c r="Z4" s="60">
+      <c r="Z4" s="35">
         <v>1</v>
       </c>
-      <c r="AA4" s="47">
+      <c r="AA4" s="31">
         <f>T4+U4+V4+W4+X4+Y4+Z4</f>
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
-      <c r="B5" s="50"/>
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="2:27" ht="15.75">
+      <c r="B5" s="45"/>
+      <c r="C5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="31">
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="31">
         <v>1</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="31">
         <v>0</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="31">
         <v>1</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="S5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60">
+      <c r="T5" s="35"/>
+      <c r="U5" s="35">
         <v>0.1</v>
       </c>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="47">
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="31">
         <f t="shared" ref="AA5:AA10" si="0">T5+U5+V5+W5+X5+Y5+Z5</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:27" ht="15.75">
+      <c r="B6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="47">
+      <c r="M6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="31">
         <v>0</v>
       </c>
-      <c r="E6" s="47">
+      <c r="S6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="47">
-        <v>1</v>
-      </c>
-      <c r="K6" s="47">
-        <v>0</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="47">
-        <v>0</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60">
-        <v>0</v>
-      </c>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="47">
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="2:27" ht="15.75">
+      <c r="B7" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="O7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="O7" s="47" t="s">
+      <c r="P7" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="47">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60">
+      <c r="T7" s="35"/>
+      <c r="U7" s="35">
         <v>0.1</v>
       </c>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="47">
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="47" t="s">
+    <row r="8" spans="2:27" ht="15.75">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60">
+      <c r="T8" s="35"/>
+      <c r="U8" s="35">
         <v>0.1</v>
       </c>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="47">
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="52">
+    <row r="9" spans="2:27" ht="15.75">
+      <c r="B9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="32">
         <v>1</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="32">
         <v>1</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="O9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="S9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="S9" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60">
+      <c r="T9" s="35"/>
+      <c r="U9" s="35">
         <v>0.1</v>
       </c>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="47">
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="15:27">
-      <c r="O10" s="47" t="s">
+    <row r="10" spans="2:27" ht="15.75">
+      <c r="O10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="39"/>
+      <c r="S10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="47"/>
-      <c r="S10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60">
+      <c r="T10" s="35"/>
+      <c r="U10" s="35">
         <v>0.1</v>
       </c>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="47">
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="2:27">
+      <c r="B11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="O11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="58"/>
-      <c r="O11" s="47" t="s">
+      <c r="P11" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="33"/>
+      <c r="C12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="47">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="31">
         <v>0</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q12" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="31">
         <v>0</v>
       </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="53"/>
-      <c r="C12" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="47">
+    <row r="14" spans="2:27">
+      <c r="B14" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
         <v>0</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="F14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="31">
         <v>1</v>
       </c>
+      <c r="Q14" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="47">
-        <v>0</v>
-      </c>
-      <c r="E13" s="47">
+    <row r="15" spans="2:27">
+      <c r="B15" s="61"/>
+      <c r="C15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="47">
-        <v>0</v>
+      <c r="J15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="47">
-        <v>1</v>
-      </c>
-      <c r="E14" s="47">
-        <v>0</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="56"/>
-      <c r="C15" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="47">
-        <v>1</v>
-      </c>
-      <c r="E15" s="47">
-        <v>1</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+    <row r="17" spans="3:13">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
         <v>64</v>
       </c>
-      <c r="M18" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="32"/>
-      <c r="D19" s="32">
+    <row r="19" spans="3:13">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26">
         <v>0</v>
       </c>
       <c r="E19">
@@ -4632,7 +4004,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S2:AA2"/>
@@ -4641,853 +4026,836 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A4:Y32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="15.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="17.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="6.65925925925926" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="11.1111111111111" customWidth="1"/>
-    <col min="23" max="23" width="10.5555555555556" customWidth="1"/>
-    <col min="25" max="25" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18" spans="5:25">
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
+    <row r="4" spans="3:27" ht="18.75">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
-    <row r="5" ht="18" spans="5:25">
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
+    <row r="5" spans="3:27" ht="18.75">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
     </row>
-    <row r="6" ht="18" spans="3:25">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="3:27" ht="18.75">
+      <c r="E6" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="39" t="s">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="39" t="s">
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+    </row>
+    <row r="7" spans="3:27" ht="18.75">
+      <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="28">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="30"/>
     </row>
-    <row r="7" ht="18" spans="1:25">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="41">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="21" t="s">
+    <row r="8" spans="3:27" ht="18.75">
+      <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="44"/>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="30"/>
     </row>
-    <row r="8" ht="18" spans="1:25">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="29" t="s">
+    <row r="9" spans="3:27" ht="18.75">
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="14">
+      <c r="N9" s="12"/>
+      <c r="O9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="29">
         <v>1</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="44"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA9" s="51"/>
     </row>
-    <row r="9" ht="18" spans="3:25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="42">
-        <v>1</v>
-      </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="23" t="s">
+    <row r="10" spans="3:27" ht="18.75">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X9" s="43" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="16"/>
+    </row>
+    <row r="11" spans="3:27" ht="18.75">
+      <c r="E11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" s="21"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="16"/>
     </row>
-    <row r="10" ht="18" spans="3:25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="14">
-        <v>2</v>
-      </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="21"/>
+    <row r="12" spans="3:27" ht="18.75">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="16"/>
     </row>
-    <row r="11" ht="18" spans="3:25">
-      <c r="C11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21" t="s">
+    <row r="13" spans="3:27" ht="18.75">
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="23" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="21"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="W13" s="21"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="16"/>
     </row>
-    <row r="12" ht="18" spans="3:25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="21"/>
+    <row r="14" spans="3:27" ht="18.75">
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="13" ht="18" spans="3:25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="21"/>
+    <row r="15" spans="3:27" ht="18.75">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
     </row>
-    <row r="14" ht="18" spans="3:25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="26" t="s">
+    <row r="16" spans="3:27" ht="18.75">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="5:27" ht="18.75">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="49" t="s">
         <v>96</v>
       </c>
+      <c r="R17" s="49"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
-    <row r="15" ht="18" spans="3:25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="39" t="s">
+    <row r="18" spans="5:27" ht="18.75">
+      <c r="G18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="5:27" ht="18.75">
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="R19" s="54"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="5:27" ht="18.75">
+      <c r="F20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="5:27" ht="18.75">
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+    </row>
+    <row r="22" spans="5:27" ht="18.75">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="23" spans="5:27" ht="18.75">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
+      <c r="K23" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="59"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
     </row>
-    <row r="16" ht="18" spans="5:25">
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
+    <row r="24" spans="5:27" ht="18.75">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="59"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
     </row>
-    <row r="17" ht="18" spans="5:25">
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
+    <row r="25" spans="5:27" ht="18.75">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="59"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
     </row>
-    <row r="18" ht="18" spans="5:25">
-      <c r="E18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
+    <row r="26" spans="5:27" ht="18.75">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
     </row>
-    <row r="19" ht="18" spans="4:25">
-      <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
+    <row r="27" spans="5:27" ht="18.75">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="54"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
     </row>
-    <row r="20" ht="18" spans="4:25">
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
+    <row r="28" spans="5:27" ht="18.75">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
     </row>
-    <row r="21" ht="18" spans="3:25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+    <row r="29" spans="5:27" ht="18.75">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
     </row>
-    <row r="22" ht="18" spans="5:25">
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
+    <row r="30" spans="5:27" ht="18.75">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
     </row>
-    <row r="23" ht="18" spans="5:25">
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="H23" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
+    <row r="31" spans="5:27" ht="18.75">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
     </row>
-    <row r="24" ht="18" spans="5:25">
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="25" ht="18" spans="5:25">
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="H25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" ht="18" spans="5:25">
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-    </row>
-    <row r="27" ht="18" spans="5:25">
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-    </row>
-    <row r="28" ht="18" spans="5:25">
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-    </row>
-    <row r="29" ht="18" spans="5:25">
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-    </row>
-    <row r="30" ht="18" spans="5:25">
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-    </row>
-    <row r="31" ht="18" spans="5:25">
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-    </row>
-    <row r="32" ht="18" spans="5:25">
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
+    <row r="32" spans="5:27" ht="18.75">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="Y6:AA6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="7890" activeTab="1"/>
+    <workbookView windowWidth="19485" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" r:id="rId1"/>
     <sheet name="DataPah" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -111,13 +111,13 @@
     <t>dado</t>
   </si>
   <si>
+    <t>move</t>
+  </si>
+  <si>
     <t>move rd = rs</t>
   </si>
   <si>
     <t>move $s0, $s1</t>
-  </si>
-  <si>
-    <t>move</t>
   </si>
   <si>
     <t>Tipo R 8-bits loop</t>
@@ -208,10 +208,40 @@
     <t>sw $s0, E($s1)</t>
   </si>
   <si>
-    <t>bew 1 = 2, 2</t>
-  </si>
-  <si>
-    <t>int valor = valor + 1</t>
+    <t>Instruções de teste</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>mfnfngf</t>
+  </si>
+  <si>
+    <t>add $s0, $s0</t>
+  </si>
+  <si>
+    <t>sub  $s0, $s2</t>
+  </si>
+  <si>
+    <t>sw $s0, 1($s1)</t>
+  </si>
+  <si>
+    <t>lw $s1, 1($s1)</t>
+  </si>
+  <si>
+    <t>sw $s1, 2($s1)</t>
+  </si>
+  <si>
+    <t>move $s3, $s0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lw $s1, 2($s1)</t>
   </si>
   <si>
     <t>pc</t>
@@ -262,6 +292,9 @@
     <t>Ler reg 2</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -304,12 +337,18 @@
     <t>Controle L - R</t>
   </si>
   <si>
+    <t>instrucao</t>
+  </si>
+  <si>
     <t>Exten 2 to 8 bits</t>
   </si>
   <si>
     <t>Multx4</t>
   </si>
   <si>
+    <t>A         B       C        D</t>
+  </si>
+  <si>
     <t>op_code</t>
   </si>
   <si>
@@ -332,16 +371,19 @@
   </si>
   <si>
     <t>Loop Func</t>
-  </si>
-  <si>
-    <t>A       B         C       D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +405,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +563,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -555,15 +927,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -604,6 +1224,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -631,6 +1260,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -642,117 +1274,161 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -763,21 +1439,21 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>589280</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
         <xdr:cNvCxnSpPr/>
@@ -813,18 +1489,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Elbow Connector 2"/>
         <xdr:cNvCxnSpPr/>
@@ -862,18 +1538,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Connector 3"/>
         <xdr:cNvCxnSpPr/>
@@ -906,18 +1582,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>587375</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131446</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
@@ -953,18 +1629,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
@@ -1000,18 +1676,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
@@ -1047,18 +1723,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>330835</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>330835</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Straight Connector 7"/>
         <xdr:cNvCxnSpPr/>
@@ -1091,18 +1767,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>300356</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>31117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>300357</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
@@ -1138,18 +1814,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Connector 9"/>
         <xdr:cNvCxnSpPr/>
@@ -1182,18 +1858,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493395</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>493396</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
@@ -1232,18 +1908,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="Straight Connector 11"/>
         <xdr:cNvCxnSpPr/>
@@ -1281,18 +1957,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="Straight Connector 12"/>
         <xdr:cNvCxnSpPr/>
@@ -1325,18 +2001,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Connector 13"/>
         <xdr:cNvCxnSpPr/>
@@ -1369,18 +2045,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>399464</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>415290</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14"/>
         <xdr:cNvCxnSpPr/>
@@ -1413,26 +2089,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="Straight Connector 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12185650" y="1409700"/>
-          <a:ext cx="0" cy="1717675"/>
+          <a:off x="14173200" y="1400175"/>
+          <a:ext cx="0" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1457,18 +2133,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Connector 16"/>
         <xdr:cNvCxnSpPr/>
@@ -1501,18 +2177,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>485867</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
@@ -1548,26 +2224,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12192000" y="3111500"/>
-          <a:ext cx="4113306" cy="18677"/>
+          <a:off x="14182725" y="3031490"/>
+          <a:ext cx="5096510" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1595,18 +2271,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Connector 19"/>
         <xdr:cNvCxnSpPr/>
@@ -1639,18 +2315,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Connector 20"/>
         <xdr:cNvCxnSpPr/>
@@ -1683,18 +2359,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>514985</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Straight Connector 21"/>
         <xdr:cNvCxnSpPr/>
@@ -1727,18 +2403,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>501015</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>501015</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
@@ -1774,18 +2450,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Elbow Connector 23"/>
         <xdr:cNvCxnSpPr/>
@@ -1823,26 +2499,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>224790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>454026</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11579225" y="4415790"/>
-          <a:ext cx="1" cy="613409"/>
+          <a:off x="13458825" y="4253865"/>
+          <a:ext cx="0" cy="574675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1870,18 +2546,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>373382</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>790576</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Elbow Connector 25"/>
         <xdr:cNvCxnSpPr/>
@@ -1919,18 +2595,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1129665</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Conector de seta reta 41"/>
         <xdr:cNvCxnSpPr/>
@@ -1966,18 +2642,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="Conector angulado 80"/>
         <xdr:cNvCxnSpPr/>
@@ -2015,18 +2691,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>761365</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Conector de seta reta 83"/>
         <xdr:cNvCxnSpPr/>
@@ -2062,18 +2738,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Conector reto 87"/>
         <xdr:cNvCxnSpPr/>
@@ -2106,18 +2782,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Conector de seta reta 91"/>
         <xdr:cNvCxnSpPr/>
@@ -2153,18 +2829,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="Conector de seta reta 113"/>
         <xdr:cNvCxnSpPr/>
@@ -2200,18 +2876,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Conector reto 123"/>
         <xdr:cNvCxnSpPr/>
@@ -2244,18 +2920,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>122208</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="Conector de seta reta 134"/>
         <xdr:cNvCxnSpPr/>
@@ -2291,26 +2967,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>113666</xdr:rowOff>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>418465</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="Conector reto 157"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11582400" y="5028566"/>
-          <a:ext cx="7568565" cy="13334"/>
+          <a:off x="13453110" y="4828540"/>
+          <a:ext cx="9167495" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2335,18 +3011,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Conector reto 161"/>
         <xdr:cNvCxnSpPr/>
@@ -2379,18 +3055,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Conector de seta reta 164"/>
         <xdr:cNvCxnSpPr/>
@@ -2426,18 +3102,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>311785</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="Straight Connector 41"/>
         <xdr:cNvCxnSpPr/>
@@ -2470,18 +3146,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="Straight Connector 42"/>
         <xdr:cNvCxnSpPr/>
@@ -2514,18 +3190,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>354965</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>692785</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
@@ -2561,18 +3237,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>323215</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="Straight Connector 44"/>
         <xdr:cNvCxnSpPr/>
@@ -2605,18 +3281,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Straight Connector 45"/>
         <xdr:cNvCxnSpPr/>
@@ -2649,18 +3325,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>459740</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>459740</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46"/>
         <xdr:cNvCxnSpPr/>
@@ -2693,18 +3369,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>861060</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>490855</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="Straight Connector 47"/>
         <xdr:cNvCxnSpPr/>
@@ -2737,18 +3413,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>499745</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>526415</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
         <xdr:cNvCxnSpPr/>
@@ -2784,18 +3460,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>526415</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1002665</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="Straight Connector 50"/>
         <xdr:cNvCxnSpPr/>
@@ -2828,18 +3504,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>513080</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="Straight Connector 51"/>
         <xdr:cNvCxnSpPr/>
@@ -2872,18 +3548,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>526415</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>90805</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="Straight Connector 52"/>
         <xdr:cNvCxnSpPr/>
@@ -2916,18 +3592,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>32385</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>615315</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
         <xdr:cNvCxnSpPr/>
@@ -2963,18 +3639,18 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>56515</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>639445</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
         <xdr:cNvCxnSpPr/>
@@ -3000,6 +3676,97 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2665095" y="3888105"/>
+          <a:ext cx="4540885" cy="10795"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266065</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2665095" y="3396615"/>
+          <a:ext cx="10795" cy="525145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3263,761 +4030,1041 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703703703704" customWidth="1"/>
+    <col min="2" max="3" width="12.7111111111111" customWidth="1"/>
+    <col min="4" max="4" width="3.71111111111111" customWidth="1"/>
+    <col min="5" max="5" width="3.85185185185185" customWidth="1"/>
+    <col min="6" max="9" width="3.71111111111111" customWidth="1"/>
+    <col min="10" max="10" width="4.71111111111111" customWidth="1"/>
+    <col min="11" max="11" width="5.28148148148148" customWidth="1"/>
+    <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="20.1407407407407" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="26" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.1111111111111" customWidth="1"/>
+    <col min="22" max="22" width="19.5555555555556" customWidth="1"/>
+    <col min="23" max="23" width="5.5037037037037" customWidth="1"/>
+    <col min="24" max="24" width="15.7777777777778" customWidth="1"/>
+    <col min="25" max="26" width="14.5555555555556" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="35" max="35" width="9.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" customWidth="1"/>
+    <col min="28" max="28" width="10.2814814814815" customWidth="1"/>
+    <col min="29" max="29" width="14.8518518518519" customWidth="1"/>
+    <col min="32" max="32" width="18.2814814814815" customWidth="1"/>
+    <col min="33" max="33" width="14.5703703703704" customWidth="1"/>
+    <col min="35" max="35" width="9.71111111111111" customWidth="1"/>
+    <col min="39" max="39" width="12.4222222222222" customWidth="1"/>
+    <col min="41" max="41" width="11.2814814814815" customWidth="1"/>
+    <col min="43" max="43" width="16.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="O2" s="39" t="s">
+      <c r="B2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="63"/>
+      <c r="O2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="S2" s="39" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
     </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="31" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="S3" s="34" t="s">
+      <c r="Q3" s="47"/>
+      <c r="S3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="15.75">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="2:27">
+      <c r="B4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="D4" s="47">
+        <v>0</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0</v>
-      </c>
-      <c r="L4" s="31" t="s">
+      <c r="J4" s="47">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47">
+        <v>0</v>
+      </c>
+      <c r="L4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>0</v>
-      </c>
-      <c r="S4" s="35" t="s">
+      <c r="P4" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>0</v>
+      </c>
+      <c r="S4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="35">
-        <v>0</v>
-      </c>
-      <c r="U4" s="35">
+      <c r="T4" s="66">
+        <v>0</v>
+      </c>
+      <c r="U4" s="66">
         <v>0.1</v>
       </c>
-      <c r="V4" s="35">
-        <v>0</v>
-      </c>
-      <c r="W4" s="35">
-        <v>0</v>
-      </c>
-      <c r="X4" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="35">
+      <c r="V4" s="66">
+        <v>0</v>
+      </c>
+      <c r="W4" s="66">
+        <v>0</v>
+      </c>
+      <c r="X4" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="66">
         <v>1</v>
       </c>
-      <c r="AA4" s="31">
+      <c r="AA4" s="47">
         <f>T4+U4+V4+W4+X4+Y4+Z4</f>
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="15.75">
-      <c r="B5" s="45"/>
-      <c r="C5" s="31" t="s">
+    <row r="5" spans="2:27">
+      <c r="B5" s="50"/>
+      <c r="C5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="D5" s="47">
+        <v>0</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31">
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
         <v>1</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="31">
+      <c r="P5" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="47">
         <v>1</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35">
+      <c r="T5" s="66"/>
+      <c r="U5" s="66">
         <v>0.1</v>
       </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="31">
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="47">
         <f t="shared" ref="AA5:AA10" si="0">T5+U5+V5+W5+X5+Y5+Z5</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15.75">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:27">
+      <c r="B6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="47">
+        <v>1</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="31">
+      <c r="O6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="47">
         <v>1</v>
       </c>
-      <c r="K6" s="31">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31" t="s">
+      <c r="Q6" s="47">
+        <v>0</v>
+      </c>
+      <c r="S6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="31">
+      <c r="T6" s="66"/>
+      <c r="U6" s="66">
+        <v>0</v>
+      </c>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="O7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="47">
         <v>1</v>
       </c>
-      <c r="Q6" s="31">
-        <v>0</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35">
-        <v>0</v>
-      </c>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="15.75">
-      <c r="B7" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="O7" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="47">
         <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35">
+      <c r="T7" s="66"/>
+      <c r="U7" s="66">
         <v>0.1</v>
       </c>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="31">
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="15.75">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:27">
+      <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="47"/>
+      <c r="L8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35">
+      <c r="T8" s="66"/>
+      <c r="U8" s="66">
         <v>0.1</v>
       </c>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="31">
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75">
-      <c r="B9" s="32" t="s">
+    <row r="9" spans="2:27">
+      <c r="B9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="52">
+        <v>0</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="52">
         <v>1</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="52">
         <v>1</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="S9" s="35" t="s">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="S9" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35">
+      <c r="T9" s="66"/>
+      <c r="U9" s="66">
         <v>0.1</v>
       </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="31">
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="15.75">
-      <c r="O10" s="31" t="s">
+    <row r="10" spans="15:27">
+      <c r="O10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="S10" s="35" t="s">
+      <c r="Q10" s="47"/>
+      <c r="S10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35">
+      <c r="T10" s="66"/>
+      <c r="U10" s="66">
         <v>0.1</v>
       </c>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="31">
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="2:17">
+      <c r="B11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="O11" s="31" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="63"/>
+      <c r="O11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="31">
+      <c r="P11" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="33"/>
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="2:17">
+      <c r="B12" s="53"/>
+      <c r="C12" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="31" t="s">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="31">
+      <c r="P12" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="32" t="s">
+    <row r="13" spans="2:17">
+      <c r="B13" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="47">
+        <v>0</v>
+      </c>
+      <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="47">
         <v>1</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="47">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:17">
+      <c r="B14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="47">
         <v>1</v>
       </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="47">
+        <v>0</v>
+      </c>
+      <c r="F14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="47">
         <v>1</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="61"/>
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="2:13">
+      <c r="B15" s="56"/>
+      <c r="C15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="47">
         <v>1</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+    <row r="16" spans="14:17">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="64"/>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="L18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="C18" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="60" t="s">
         <v>64</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="C19" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="59">
+        <v>0</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0</v>
+      </c>
+      <c r="F19" s="60">
+        <v>0</v>
+      </c>
+      <c r="G19" s="60">
+        <v>0</v>
+      </c>
+      <c r="H19" s="60">
+        <v>0</v>
+      </c>
+      <c r="I19" s="60">
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="J19" s="60">
+        <v>0</v>
+      </c>
+      <c r="K19" s="60">
+        <v>0</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="60">
+        <v>0</v>
+      </c>
+      <c r="E20" s="60">
+        <v>0</v>
+      </c>
+      <c r="F20" s="60">
+        <v>0</v>
+      </c>
+      <c r="G20" s="60">
+        <v>0</v>
+      </c>
+      <c r="H20" s="60">
+        <v>0</v>
+      </c>
+      <c r="I20" s="60">
+        <v>0</v>
+      </c>
+      <c r="J20" s="60">
+        <v>0</v>
+      </c>
+      <c r="K20" s="60">
+        <v>0</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="60">
+        <v>0</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0</v>
+      </c>
+      <c r="F21" s="60">
+        <v>0</v>
+      </c>
+      <c r="G21" s="60">
+        <v>0</v>
+      </c>
+      <c r="H21" s="60">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="I21" s="60">
+        <v>0</v>
+      </c>
+      <c r="J21" s="60">
+        <v>0</v>
+      </c>
+      <c r="K21" s="60">
         <v>1</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
+      <c r="L21" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="60"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="60">
+        <v>1</v>
+      </c>
+      <c r="E22" s="60">
+        <v>1</v>
+      </c>
+      <c r="F22" s="60">
+        <v>0</v>
+      </c>
+      <c r="G22" s="60">
+        <v>0</v>
+      </c>
+      <c r="H22" s="60">
+        <v>0</v>
+      </c>
+      <c r="I22" s="60">
+        <v>1</v>
+      </c>
+      <c r="J22" s="60">
+        <v>0</v>
+      </c>
+      <c r="K22" s="60">
+        <v>1</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="60"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="60">
+        <v>1</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0</v>
+      </c>
+      <c r="F23" s="60">
+        <v>0</v>
+      </c>
+      <c r="G23" s="60">
+        <v>1</v>
+      </c>
+      <c r="H23" s="60">
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <v>1</v>
+      </c>
+      <c r="J23" s="60">
+        <v>0</v>
+      </c>
+      <c r="K23" s="60">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="60"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="60">
+        <v>1</v>
+      </c>
+      <c r="E24" s="60">
+        <v>1</v>
+      </c>
+      <c r="F24" s="60">
+        <v>0</v>
+      </c>
+      <c r="G24" s="60">
+        <v>1</v>
+      </c>
+      <c r="H24" s="60">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60">
+        <v>1</v>
+      </c>
+      <c r="J24" s="60">
+        <v>1</v>
+      </c>
+      <c r="K24" s="60">
+        <v>0</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="60">
+        <v>0</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60">
+        <v>1</v>
+      </c>
+      <c r="G25" s="60">
+        <v>1</v>
+      </c>
+      <c r="H25" s="60">
+        <v>0</v>
+      </c>
+      <c r="I25" s="60">
+        <v>0</v>
+      </c>
+      <c r="J25" s="60">
+        <v>1</v>
+      </c>
+      <c r="K25" s="60">
+        <v>0</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="60">
+        <v>1</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0</v>
+      </c>
+      <c r="F26" s="60">
+        <v>0</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="60">
+        <v>0</v>
+      </c>
+      <c r="I26" s="60">
+        <v>1</v>
+      </c>
+      <c r="J26" s="60">
+        <v>1</v>
+      </c>
+      <c r="K26" s="60">
+        <v>0</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="O9:Q9"/>
+  <mergeCells count="25">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S2:AA2"/>
@@ -4026,836 +5073,860 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
+    <col min="13" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="17.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
+    <col min="16" max="16" width="6.65925925925926" customWidth="1"/>
+    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
+    <col min="21" max="21" width="11.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="10.5555555555556" customWidth="1"/>
+    <col min="25" max="25" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:27" ht="18.75">
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+    <row r="4" ht="18" spans="5:25">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
     </row>
-    <row r="5" spans="3:27" ht="18.75">
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+    <row r="5" ht="18" spans="5:25">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
     </row>
-    <row r="6" spans="3:27" ht="18.75">
-      <c r="E6" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="49" t="s">
+    <row r="6" ht="18" spans="3:25">
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
     </row>
-    <row r="7" spans="3:27" ht="18.75">
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="28">
-        <v>0</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="16" t="s">
+    <row r="7" ht="18" spans="1:25">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="41">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="44"/>
+    </row>
+    <row r="8" ht="18" spans="1:25">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="14">
+        <v>1</v>
+      </c>
+      <c r="U8" s="21"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="44"/>
+    </row>
+    <row r="9" ht="18" spans="3:25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="42">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="21"/>
+    </row>
+    <row r="10" ht="18" spans="3:25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="30"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="14">
+        <v>2</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="21"/>
     </row>
-    <row r="8" spans="3:27" ht="18.75">
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="30"/>
+    <row r="11" ht="18" spans="3:25">
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="21"/>
     </row>
-    <row r="9" spans="3:27" ht="18.75">
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="29">
-        <v>1</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z9" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA9" s="51"/>
+    <row r="12" ht="18" spans="3:25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="21"/>
     </row>
-    <row r="10" spans="3:27" ht="18.75">
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="16"/>
+    <row r="13" ht="18" spans="3:25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" s="26"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="21"/>
     </row>
-    <row r="11" spans="3:27" ht="18.75">
-      <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="16"/>
+    <row r="14" ht="18" spans="3:25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="12" spans="3:27" ht="18.75">
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="16"/>
+    <row r="15" ht="18" spans="3:25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
     </row>
-    <row r="13" spans="3:27" ht="18.75">
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="16"/>
+    <row r="16" ht="18" spans="5:25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
     </row>
-    <row r="14" spans="3:27" ht="18.75">
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="21" t="s">
-        <v>94</v>
-      </c>
+    <row r="17" ht="18" spans="5:25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
     </row>
-    <row r="15" spans="3:27" ht="18.75">
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+    <row r="18" ht="18" spans="5:25">
+      <c r="E18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
     </row>
-    <row r="16" spans="3:27" ht="18.75">
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+    <row r="19" ht="18" spans="4:25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
     </row>
-    <row r="17" spans="5:27" ht="18.75">
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="49"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+    <row r="20" ht="18" spans="4:25">
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
     </row>
-    <row r="18" spans="5:27" ht="18.75">
-      <c r="G18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+    <row r="21" ht="18" spans="3:25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
     </row>
-    <row r="19" spans="5:27" ht="18.75">
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="R19" s="54"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+    <row r="22" ht="18" spans="5:25">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
     </row>
-    <row r="20" spans="5:27" ht="18.75">
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
+    <row r="23" ht="18" spans="5:25">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
     </row>
-    <row r="21" spans="5:27" ht="18.75">
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+    <row r="24" ht="18" spans="5:25">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
     </row>
-    <row r="22" spans="5:27" ht="18.75">
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+    <row r="25" ht="18" spans="5:25">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
     </row>
-    <row r="23" spans="5:27" ht="18.75">
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
+    <row r="26" ht="18" spans="5:25">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
     </row>
-    <row r="24" spans="5:27" ht="18.75">
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
+    <row r="27" ht="18" spans="5:25">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
     </row>
-    <row r="25" spans="5:27" ht="18.75">
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+    <row r="28" ht="18" spans="5:25">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
     </row>
-    <row r="26" spans="5:27" ht="18.75">
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
+    <row r="29" ht="18" spans="5:25">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
     </row>
-    <row r="27" spans="5:27" ht="18.75">
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="54"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
+    <row r="30" ht="18" spans="5:25">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
     </row>
-    <row r="28" spans="5:27" ht="18.75">
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
+    <row r="31" ht="18" spans="5:25">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
     </row>
-    <row r="29" spans="5:27" ht="18.75">
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-    </row>
-    <row r="30" spans="5:27" ht="18.75">
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-    </row>
-    <row r="31" spans="5:27" ht="18.75">
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-    </row>
-    <row r="32" spans="5:27" ht="18.75">
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
+    <row r="32" ht="18" spans="5:25">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" r:id="rId1"/>
     <sheet name="DataPah" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>mfnfngf</t>
   </si>
   <si>
     <t>add $s0, $s0</t>
@@ -376,14 +373,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,152 +396,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,194 +410,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -927,251 +588,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,256 +598,209 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1439,7 +811,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -1453,7 +825,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
         <xdr:cNvCxnSpPr/>
@@ -1500,7 +872,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="3" name="Elbow Connector 2"/>
         <xdr:cNvCxnSpPr/>
@@ -1549,7 +921,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Connector 3"/>
         <xdr:cNvCxnSpPr/>
@@ -1593,7 +965,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>131446</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
@@ -1640,7 +1012,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
@@ -1687,7 +1059,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
@@ -1734,7 +1106,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Straight Connector 7"/>
         <xdr:cNvCxnSpPr/>
@@ -1778,7 +1150,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
@@ -1825,7 +1197,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Connector 9"/>
         <xdr:cNvCxnSpPr/>
@@ -1869,7 +1241,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
@@ -1919,7 +1291,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="Straight Connector 11"/>
         <xdr:cNvCxnSpPr/>
@@ -1968,7 +1340,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>118747</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="Straight Connector 12"/>
         <xdr:cNvCxnSpPr/>
@@ -2012,7 +1384,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Connector 13"/>
         <xdr:cNvCxnSpPr/>
@@ -2056,7 +1428,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14"/>
         <xdr:cNvCxnSpPr/>
@@ -2100,7 +1472,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="Straight Connector 15"/>
         <xdr:cNvCxnSpPr/>
@@ -2144,7 +1516,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Connector 16"/>
         <xdr:cNvCxnSpPr/>
@@ -2188,7 +1560,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
@@ -2235,7 +1607,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
@@ -2282,7 +1654,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Connector 19"/>
         <xdr:cNvCxnSpPr/>
@@ -2326,7 +1698,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Connector 20"/>
         <xdr:cNvCxnSpPr/>
@@ -2370,7 +1742,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Straight Connector 21"/>
         <xdr:cNvCxnSpPr/>
@@ -2414,7 +1786,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
@@ -2461,7 +1833,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Elbow Connector 23"/>
         <xdr:cNvCxnSpPr/>
@@ -2510,7 +1882,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
@@ -2557,7 +1929,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Elbow Connector 25"/>
         <xdr:cNvCxnSpPr/>
@@ -2606,7 +1978,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Conector de seta reta 41"/>
         <xdr:cNvCxnSpPr/>
@@ -2653,7 +2025,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="Conector angulado 80"/>
         <xdr:cNvCxnSpPr/>
@@ -2702,7 +2074,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Conector de seta reta 83"/>
         <xdr:cNvCxnSpPr/>
@@ -2749,7 +2121,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Conector reto 87"/>
         <xdr:cNvCxnSpPr/>
@@ -2793,7 +2165,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Conector de seta reta 91"/>
         <xdr:cNvCxnSpPr/>
@@ -2840,7 +2212,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="Conector de seta reta 113"/>
         <xdr:cNvCxnSpPr/>
@@ -2887,7 +2259,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Conector reto 123"/>
         <xdr:cNvCxnSpPr/>
@@ -2931,7 +2303,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>122208</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="Conector de seta reta 134"/>
         <xdr:cNvCxnSpPr/>
@@ -2978,7 +2350,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="Conector reto 157"/>
         <xdr:cNvCxnSpPr/>
@@ -3022,7 +2394,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Conector reto 161"/>
         <xdr:cNvCxnSpPr/>
@@ -3066,7 +2438,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Conector de seta reta 164"/>
         <xdr:cNvCxnSpPr/>
@@ -3113,7 +2485,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="Straight Connector 41"/>
         <xdr:cNvCxnSpPr/>
@@ -3157,7 +2529,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="Straight Connector 42"/>
         <xdr:cNvCxnSpPr/>
@@ -3201,7 +2573,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
@@ -3248,7 +2620,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="Straight Connector 44"/>
         <xdr:cNvCxnSpPr/>
@@ -3292,7 +2664,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Straight Connector 45"/>
         <xdr:cNvCxnSpPr/>
@@ -3336,7 +2708,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46"/>
         <xdr:cNvCxnSpPr/>
@@ -3380,7 +2752,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="Straight Connector 47"/>
         <xdr:cNvCxnSpPr/>
@@ -3424,7 +2796,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
         <xdr:cNvCxnSpPr/>
@@ -3471,7 +2843,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="Straight Connector 50"/>
         <xdr:cNvCxnSpPr/>
@@ -3515,7 +2887,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="Straight Connector 51"/>
         <xdr:cNvCxnSpPr/>
@@ -3559,7 +2931,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>90805</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="53" name="Straight Connector 52"/>
         <xdr:cNvCxnSpPr/>
@@ -3603,7 +2975,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
         <xdr:cNvCxnSpPr/>
@@ -3650,7 +3022,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
         <xdr:cNvCxnSpPr/>
@@ -3697,7 +3069,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="58" name="Straight Connector 57"/>
         <xdr:cNvCxnSpPr/>
@@ -3741,7 +3113,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
         <xdr:cNvCxnSpPr/>
@@ -4030,706 +3402,706 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703703703704" customWidth="1"/>
-    <col min="2" max="3" width="12.7111111111111" customWidth="1"/>
-    <col min="4" max="4" width="3.71111111111111" customWidth="1"/>
-    <col min="5" max="5" width="3.85185185185185" customWidth="1"/>
-    <col min="6" max="9" width="3.71111111111111" customWidth="1"/>
-    <col min="10" max="10" width="4.71111111111111" customWidth="1"/>
-    <col min="11" max="11" width="5.28148148148148" customWidth="1"/>
-    <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.1407407407407" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="10.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="19.5555555555556" customWidth="1"/>
-    <col min="23" max="23" width="5.5037037037037" customWidth="1"/>
-    <col min="24" max="24" width="15.7777777777778" customWidth="1"/>
-    <col min="25" max="26" width="14.5555555555556" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="10.2814814814815" customWidth="1"/>
-    <col min="29" max="29" width="14.8518518518519" customWidth="1"/>
-    <col min="32" max="32" width="18.2814814814815" customWidth="1"/>
-    <col min="33" max="33" width="14.5703703703704" customWidth="1"/>
-    <col min="35" max="35" width="9.71111111111111" customWidth="1"/>
-    <col min="39" max="39" width="12.4222222222222" customWidth="1"/>
-    <col min="41" max="41" width="11.2814814814815" customWidth="1"/>
-    <col min="43" max="43" width="16.2814814814815" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="9.7109375" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" customWidth="1"/>
+    <col min="43" max="43" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="63"/>
-      <c r="O2" s="47" t="s">
+      <c r="B2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="O2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="S2" s="47" t="s">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="S2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
     </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="47" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="44"/>
+      <c r="S3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="2:27" ht="15.75">
       <c r="B4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="47">
-        <v>0</v>
-      </c>
-      <c r="E4" s="47">
-        <v>0</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="47">
-        <v>0</v>
-      </c>
-      <c r="K4" s="47">
-        <v>0</v>
-      </c>
-      <c r="L4" s="47" t="s">
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="47">
-        <v>0</v>
-      </c>
-      <c r="S4" s="66" t="s">
+      <c r="P4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>0</v>
+      </c>
+      <c r="S4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="66">
-        <v>0</v>
-      </c>
-      <c r="U4" s="66">
+      <c r="T4" s="40">
+        <v>0</v>
+      </c>
+      <c r="U4" s="40">
         <v>0.1</v>
       </c>
-      <c r="V4" s="66">
-        <v>0</v>
-      </c>
-      <c r="W4" s="66">
-        <v>0</v>
-      </c>
-      <c r="X4" s="66">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="66">
+      <c r="V4" s="40">
+        <v>0</v>
+      </c>
+      <c r="W4" s="40">
+        <v>0</v>
+      </c>
+      <c r="X4" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="40">
         <v>1</v>
       </c>
-      <c r="AA4" s="47">
+      <c r="AA4" s="31">
         <f>T4+U4+V4+W4+X4+Y4+Z4</f>
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="15.75">
       <c r="B5" s="50"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="47">
-        <v>0</v>
-      </c>
-      <c r="E5" s="47">
-        <v>0</v>
-      </c>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="47">
-        <v>0</v>
-      </c>
-      <c r="K5" s="47">
+      <c r="J5" s="31">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
         <v>1</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="47">
+      <c r="P5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31">
         <v>1</v>
       </c>
-      <c r="S5" s="66" t="s">
+      <c r="S5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40">
         <v>0.1</v>
       </c>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="47">
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="31">
         <f t="shared" ref="AA5:AA10" si="0">T5+U5+V5+W5+X5+Y5+Z5</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:27" ht="15.75">
+      <c r="B6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="47">
-        <v>0</v>
-      </c>
-      <c r="E6" s="47">
-        <v>0</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="31">
         <v>1</v>
       </c>
-      <c r="K6" s="47">
-        <v>0</v>
-      </c>
-      <c r="L6" s="47" t="s">
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="31">
         <v>1</v>
       </c>
-      <c r="Q6" s="47">
-        <v>0</v>
-      </c>
-      <c r="S6" s="66" t="s">
+      <c r="Q6" s="31">
+        <v>0</v>
+      </c>
+      <c r="S6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66">
-        <v>0</v>
-      </c>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="47">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40">
+        <v>0</v>
+      </c>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="2:27" ht="15.75">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="O7" s="47" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="O7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="31">
         <v>1</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="31">
         <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="66" t="s">
+      <c r="S7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40">
         <v>0.1</v>
       </c>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="47">
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="47" t="s">
+    <row r="8" spans="2:27" ht="15.75">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="47" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="66" t="s">
+      <c r="S8" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66">
+      <c r="T8" s="40"/>
+      <c r="U8" s="40">
         <v>0.1</v>
       </c>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="47">
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="2:27" ht="15.75">
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="52">
-        <v>0</v>
-      </c>
-      <c r="E9" s="52">
-        <v>0</v>
-      </c>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="32">
         <v>1</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="32">
         <v>1</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="S9" s="66" t="s">
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="S9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66">
+      <c r="T9" s="40"/>
+      <c r="U9" s="40">
         <v>0.1</v>
       </c>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="47">
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="15:27">
-      <c r="O10" s="47" t="s">
+    <row r="10" spans="2:27" ht="15.75">
+      <c r="O10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="47" t="s">
+      <c r="P10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="S10" s="66" t="s">
+      <c r="Q10" s="44"/>
+      <c r="S10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66">
+      <c r="T10" s="40"/>
+      <c r="U10" s="40">
         <v>0.1</v>
       </c>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="47">
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="2:27">
+      <c r="B11" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="63"/>
-      <c r="O11" s="47" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="O11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="53"/>
-      <c r="C12" s="47" t="s">
+      <c r="P11" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="33"/>
+      <c r="C12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47" t="s">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="47" t="s">
+      <c r="O12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="47">
+      <c r="P12" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="52" t="s">
+    <row r="13" spans="2:27">
+      <c r="B13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="47">
-        <v>0</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="47" t="s">
+      <c r="O13" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="31">
         <v>1</v>
       </c>
-      <c r="Q13" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="55" t="s">
+      <c r="Q13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="31">
         <v>1</v>
       </c>
-      <c r="E14" s="47">
-        <v>0</v>
-      </c>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="31">
+        <v>0</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="O14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="31">
         <v>1</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="56"/>
-      <c r="C15" s="47" t="s">
+    <row r="15" spans="2:27">
+      <c r="B15" s="35"/>
+      <c r="C15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="31">
         <v>1</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="14:17">
+    <row r="16" spans="2:27">
       <c r="N16">
         <v>0</v>
       </c>
@@ -4744,19 +4116,19 @@
       </c>
     </row>
     <row r="17" spans="3:17">
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="64"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="66"/>
       <c r="N17">
         <v>5</v>
       </c>
@@ -4770,301 +4142,316 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="59" t="s">
+    <row r="18" spans="3:17">
+      <c r="C18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>1</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0</v>
+      </c>
+      <c r="K20" s="37">
+        <v>0</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="37">
+        <v>2</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0</v>
+      </c>
+      <c r="K21" s="37">
+        <v>1</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="37">
+        <v>3</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
+        <v>1</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="37">
         <v>4</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D23" s="37">
+        <v>1</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0</v>
+      </c>
+      <c r="G23" s="37">
+        <v>1</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1</v>
+      </c>
+      <c r="J23" s="37">
+        <v>0</v>
+      </c>
+      <c r="K23" s="37">
+        <v>1</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="37">
         <v>5</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="47" t="s">
+      <c r="D24" s="37">
+        <v>1</v>
+      </c>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1</v>
+      </c>
+      <c r="J24" s="37">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37">
+        <v>0</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="37">
         <v>6</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47" t="s">
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <v>1</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37">
+        <v>0</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="37">
         <v>7</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="59">
-        <v>0</v>
-      </c>
-      <c r="E19" s="60">
-        <v>0</v>
-      </c>
-      <c r="F19" s="60">
-        <v>0</v>
-      </c>
-      <c r="G19" s="60">
-        <v>0</v>
-      </c>
-      <c r="H19" s="60">
-        <v>0</v>
-      </c>
-      <c r="I19" s="60">
+      <c r="D26" s="37">
         <v>1</v>
       </c>
-      <c r="J19" s="60">
-        <v>0</v>
-      </c>
-      <c r="K19" s="60">
-        <v>0</v>
-      </c>
-      <c r="L19" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="60">
-        <v>0</v>
-      </c>
-      <c r="E20" s="60">
-        <v>0</v>
-      </c>
-      <c r="F20" s="60">
-        <v>0</v>
-      </c>
-      <c r="G20" s="60">
-        <v>0</v>
-      </c>
-      <c r="H20" s="60">
-        <v>0</v>
-      </c>
-      <c r="I20" s="60">
-        <v>0</v>
-      </c>
-      <c r="J20" s="60">
-        <v>0</v>
-      </c>
-      <c r="K20" s="60">
-        <v>0</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="60"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="60">
-        <v>0</v>
-      </c>
-      <c r="E21" s="60">
-        <v>0</v>
-      </c>
-      <c r="F21" s="60">
-        <v>0</v>
-      </c>
-      <c r="G21" s="60">
-        <v>0</v>
-      </c>
-      <c r="H21" s="60">
+      <c r="E26" s="37">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37">
         <v>1</v>
       </c>
-      <c r="I21" s="60">
-        <v>0</v>
-      </c>
-      <c r="J21" s="60">
-        <v>0</v>
-      </c>
-      <c r="K21" s="60">
+      <c r="J26" s="37">
         <v>1</v>
       </c>
-      <c r="L21" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="60"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="60">
-        <v>1</v>
-      </c>
-      <c r="E22" s="60">
-        <v>1</v>
-      </c>
-      <c r="F22" s="60">
-        <v>0</v>
-      </c>
-      <c r="G22" s="60">
-        <v>0</v>
-      </c>
-      <c r="H22" s="60">
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
-        <v>1</v>
-      </c>
-      <c r="J22" s="60">
-        <v>0</v>
-      </c>
-      <c r="K22" s="60">
-        <v>1</v>
-      </c>
-      <c r="L22" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="60"/>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="60">
-        <v>1</v>
-      </c>
-      <c r="E23" s="60">
-        <v>0</v>
-      </c>
-      <c r="F23" s="60">
-        <v>0</v>
-      </c>
-      <c r="G23" s="60">
-        <v>1</v>
-      </c>
-      <c r="H23" s="60">
-        <v>0</v>
-      </c>
-      <c r="I23" s="60">
-        <v>1</v>
-      </c>
-      <c r="J23" s="60">
-        <v>0</v>
-      </c>
-      <c r="K23" s="60">
-        <v>1</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="60"/>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="60">
-        <v>1</v>
-      </c>
-      <c r="E24" s="60">
-        <v>1</v>
-      </c>
-      <c r="F24" s="60">
-        <v>0</v>
-      </c>
-      <c r="G24" s="60">
-        <v>1</v>
-      </c>
-      <c r="H24" s="60">
-        <v>0</v>
-      </c>
-      <c r="I24" s="60">
-        <v>1</v>
-      </c>
-      <c r="J24" s="60">
-        <v>1</v>
-      </c>
-      <c r="K24" s="60">
-        <v>0</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="M24" s="60"/>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="60">
-        <v>0</v>
-      </c>
-      <c r="E25" s="60">
-        <v>0</v>
-      </c>
-      <c r="F25" s="60">
-        <v>1</v>
-      </c>
-      <c r="G25" s="60">
-        <v>1</v>
-      </c>
-      <c r="H25" s="60">
-        <v>0</v>
-      </c>
-      <c r="I25" s="60">
-        <v>0</v>
-      </c>
-      <c r="J25" s="60">
-        <v>1</v>
-      </c>
-      <c r="K25" s="60">
-        <v>0</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="60"/>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="C26" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="60">
-        <v>1</v>
-      </c>
-      <c r="E26" s="60">
-        <v>0</v>
-      </c>
-      <c r="F26" s="60">
-        <v>0</v>
-      </c>
-      <c r="G26" s="62" t="s">
+      <c r="K26" s="37">
+        <v>0</v>
+      </c>
+      <c r="L26" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="60">
-        <v>0</v>
-      </c>
-      <c r="I26" s="60">
-        <v>1</v>
-      </c>
-      <c r="J26" s="60">
-        <v>1</v>
-      </c>
-      <c r="K26" s="60">
-        <v>0</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="60"/>
+      <c r="M26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S2:AA2"/>
@@ -5073,860 +4460,840 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="6.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="15.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="17.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="13.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="6.65925925925926" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="11.1111111111111" customWidth="1"/>
-    <col min="23" max="23" width="10.5555555555556" customWidth="1"/>
-    <col min="25" max="25" width="14.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18" spans="5:25">
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-    </row>
-    <row r="5" ht="18" spans="5:25">
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-    </row>
-    <row r="6" ht="18" spans="3:25">
-      <c r="C6" s="1" t="s">
+    <row r="4" spans="1:25" ht="18.75">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" spans="1:25" ht="18.75">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" ht="18.75">
+      <c r="C6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="39" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="39" t="s">
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+    </row>
+    <row r="7" spans="1:25" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-    </row>
-    <row r="7" ht="18" spans="1:25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="23" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="41">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="23" t="s">
+      <c r="T7" s="12"/>
+      <c r="U7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="21" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="30"/>
+    </row>
+    <row r="8" spans="1:25" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V7" s="14"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="44"/>
-    </row>
-    <row r="8" ht="18" spans="1:25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="29" t="s">
+      <c r="R8" s="12"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="12">
+        <v>1</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="30"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.75">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="14"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="14">
+      <c r="L9" s="12"/>
+      <c r="M9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="29">
         <v>1</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="44"/>
-    </row>
-    <row r="9" ht="18" spans="3:25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="23" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="42">
-        <v>1</v>
-      </c>
-      <c r="R9" s="14"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="14" t="s">
+      <c r="U9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="23" t="s">
+      <c r="X9" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="43" t="s">
+      <c r="Y9" s="56"/>
+    </row>
+    <row r="10" spans="1:25" ht="18.75">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="Y9" s="21"/>
-    </row>
-    <row r="10" ht="18" spans="3:25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="12">
+        <v>2</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" ht="18.75">
+      <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="14">
-        <v>2</v>
-      </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="21"/>
-    </row>
-    <row r="11" ht="18" spans="3:25">
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="15"/>
+      <c r="O11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21" t="s">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="12"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.75">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:25" ht="18.75">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="21"/>
-    </row>
-    <row r="12" ht="18" spans="3:25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="21"/>
-    </row>
-    <row r="13" ht="18" spans="3:25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="24" t="s">
+      <c r="N13" s="20"/>
+      <c r="O13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26" t="s">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25" t="s">
+      <c r="U13" s="21"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:25" ht="18.75">
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="21"/>
-    </row>
-    <row r="14" ht="18" spans="3:25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="40" t="s">
+      <c r="X14" s="58"/>
+      <c r="Y14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="26" t="s">
+    </row>
+    <row r="15" spans="1:25" ht="18.75">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" ht="18" spans="3:25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="39" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" ht="18.75">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+    </row>
+    <row r="17" spans="3:25" ht="18.75">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-    </row>
-    <row r="16" ht="18" spans="5:25">
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-    </row>
-    <row r="17" ht="18" spans="5:25">
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="39" t="s">
+      <c r="P17" s="54"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+    </row>
+    <row r="18" spans="3:25" ht="18.75">
+      <c r="E18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+    </row>
+    <row r="19" spans="3:25" ht="18.75">
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" ht="18" spans="5:25">
-      <c r="E18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-    </row>
-    <row r="19" ht="18" spans="4:25">
-      <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="40" t="s">
+      <c r="P19" s="59"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+    </row>
+    <row r="20" spans="3:25" ht="18.75">
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+    </row>
+    <row r="21" spans="3:25" ht="18.75">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="3:25" ht="18.75">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="3:25" ht="18.75">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="H23" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-    </row>
-    <row r="20" ht="18" spans="4:25">
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-    </row>
-    <row r="21" ht="18" spans="3:25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-    </row>
-    <row r="22" ht="18" spans="5:25">
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-    </row>
-    <row r="23" ht="18" spans="5:25">
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="H23" s="29" t="s">
+      <c r="I23" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="J23" s="64"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="3:25" ht="18.75">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-    </row>
-    <row r="24" ht="18" spans="5:25">
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="27" t="s">
+      <c r="J24" s="64"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="3:25" ht="18.75">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="25" ht="18" spans="5:25">
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="H25" s="30" t="s">
+      <c r="I25" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="J25" s="64"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="3:25" ht="18.75">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" ht="18" spans="5:25">
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="27" t="s">
+      <c r="J26" s="64"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="3:25" ht="18.75">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-    </row>
-    <row r="27" ht="18" spans="5:25">
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="36" t="s">
+      <c r="J27" s="59"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="3:25" ht="18.75">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-    </row>
-    <row r="28" ht="18" spans="5:25">
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-    </row>
-    <row r="29" ht="18" spans="5:25">
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-    </row>
-    <row r="30" ht="18" spans="5:25">
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-    </row>
-    <row r="31" ht="18" spans="5:25">
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-    </row>
-    <row r="32" ht="18" spans="5:25">
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+    </row>
+    <row r="29" spans="3:25" ht="18.75">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+    </row>
+    <row r="30" spans="3:25" ht="18.75">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+    </row>
+    <row r="31" spans="3:25" ht="18.75">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+    </row>
+    <row r="32" spans="3:25" ht="18.75">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="S6:U6"/>
     <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="7890"/>
+    <workbookView windowWidth="19485" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" r:id="rId1"/>
     <sheet name="DataPah" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
   <si>
     <t>Registradores</t>
-  </si>
-  <si>
-    <t>Tempo de execução (ns)</t>
   </si>
   <si>
     <t>Conjunto</t>
@@ -57,30 +54,6 @@
     <t>Endereços</t>
   </si>
   <si>
-    <t>Banco de instruções</t>
-  </si>
-  <si>
-    <t>Controlador</t>
-  </si>
-  <si>
-    <t>banco de registradores</t>
-  </si>
-  <si>
-    <t>ULA</t>
-  </si>
-  <si>
-    <t>banco de memoria</t>
-  </si>
-  <si>
-    <t>multplexador 1x4</t>
-  </si>
-  <si>
-    <t>Multplexador 1x2</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Aritimetica</t>
   </si>
   <si>
@@ -108,58 +81,58 @@
     <t>Reg 2</t>
   </si>
   <si>
-    <t>dado</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>move rd = rs</t>
+    <t>Tipo R 8-bits loop</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>Reg 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>loop indice anteceço da instrução 15</t>
+  </si>
+  <si>
+    <t>loop 15 instruções atras</t>
+  </si>
+  <si>
+    <t>Tipo I 8-bits</t>
+  </si>
+  <si>
+    <t>Dado</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>lw rs, endereço</t>
+  </si>
+  <si>
+    <t>lw $s0, 0 - 255</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sw rs, endereço</t>
+  </si>
+  <si>
+    <t>sw $s0, 0 - 255</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>li rd = rs</t>
   </si>
   <si>
     <t>move $s0, $s1</t>
-  </si>
-  <si>
-    <t>Tipo R 8-bits loop</t>
-  </si>
-  <si>
-    <t>Reg 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>indice</t>
-  </si>
-  <si>
-    <t>beq</t>
-  </si>
-  <si>
-    <t>loop indice anteceço da instrução 15</t>
-  </si>
-  <si>
-    <t>loop 15 instruções atras</t>
-  </si>
-  <si>
-    <t>Memorias</t>
-  </si>
-  <si>
-    <t>lw</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>Tipo I 8-bits</t>
-  </si>
-  <si>
-    <t>Men 1</t>
   </si>
   <si>
     <t>op 
@@ -169,12 +142,12 @@
     <t>endereço</t>
   </si>
   <si>
-    <t>Men 2</t>
-  </si>
-  <si>
     <t>condicional</t>
   </si>
   <si>
+    <t>beq</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
@@ -184,33 +157,21 @@
     <t xml:space="preserve">beq $s0, $s1, 3 </t>
   </si>
   <si>
-    <t>Men 3</t>
-  </si>
-  <si>
-    <t>Dado</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>lw rs, endereço(rt)</t>
-  </si>
-  <si>
-    <t>lw $s0, E($s1)</t>
-  </si>
-  <si>
-    <t>Men 4</t>
-  </si>
-  <si>
-    <t>sw rs, endereço(rt)</t>
-  </si>
-  <si>
-    <t>sw $s0, E($s1)</t>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>bne rd != rs pula para endereço a frente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bne $s0, $s1, 3 </t>
   </si>
   <si>
     <t>Instruções de teste</t>
   </si>
   <si>
+    <t>Endereço</t>
+  </si>
+  <si>
     <t>assembly</t>
   </si>
   <si>
@@ -244,12 +205,15 @@
     <t>pc</t>
   </si>
   <si>
-    <t>Banco de Instruções / pc</t>
+    <t xml:space="preserve">Banco de Instruções </t>
   </si>
   <si>
     <t>Banco de Registradores</t>
   </si>
   <si>
+    <t>ULA</t>
+  </si>
+  <si>
     <t>Memory data</t>
   </si>
   <si>
@@ -274,30 +238,21 @@
     <t>zero</t>
   </si>
   <si>
-    <t>count</t>
+    <t>clock</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Multx2</t>
-  </si>
-  <si>
     <t>(4..5)</t>
   </si>
   <si>
     <t>Ler reg 2</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Resultado</t>
   </si>
   <si>
-    <t>Endereço</t>
-  </si>
-  <si>
     <t>Resultado da leitura</t>
   </si>
   <si>
@@ -316,13 +271,13 @@
     <t>Entrada 2</t>
   </si>
   <si>
-    <t>(6..7)</t>
+    <t>instrução + 1</t>
   </si>
   <si>
     <t>reg write C</t>
   </si>
   <si>
-    <t>Dado 3</t>
+    <t xml:space="preserve">Dado </t>
   </si>
   <si>
     <t>alu op</t>
@@ -334,16 +289,22 @@
     <t>Controle L - R</t>
   </si>
   <si>
-    <t>instrucao</t>
-  </si>
-  <si>
-    <t>Exten 2 to 8 bits</t>
+    <t>BEQ</t>
+  </si>
+  <si>
+    <t>jump</t>
   </si>
   <si>
     <t>Multx4</t>
   </si>
   <si>
-    <t>A         B       C        D</t>
+    <t xml:space="preserve"> A       B       C      D</t>
+  </si>
+  <si>
+    <t>Controlador</t>
+  </si>
+  <si>
+    <t>Seletor</t>
   </si>
   <si>
     <t>op_code</t>
@@ -361,7 +322,7 @@
     <t>Alu src</t>
   </si>
   <si>
-    <t>alu OP</t>
+    <t>seletor</t>
   </si>
   <si>
     <t>MENwrite</t>
@@ -373,8 +334,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +363,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +521,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -588,23 +885,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -628,42 +1167,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,134 +1203,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -811,175 +1364,35 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>589280</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>748665</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13773150" y="1390015"/>
-          <a:ext cx="570865" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="14210030" y="1384935"/>
+          <a:ext cx="2082800" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>739775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15107285" y="1390650"/>
-          <a:ext cx="738505" cy="244475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 51160"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14068425" y="1876425"/>
-          <a:ext cx="0" cy="1352550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131446</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14068425" y="1874520"/>
-          <a:ext cx="275590" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1012,15 +1425,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13773150" y="2304415"/>
-          <a:ext cx="2094865" cy="0"/>
+          <a:off x="14210030" y="2304415"/>
+          <a:ext cx="2092960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1049,71 +1462,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18507710" y="1854200"/>
-          <a:ext cx="760730" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>330835</xdr:colOff>
+      <xdr:colOff>207010</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>330835</xdr:colOff>
+      <xdr:colOff>207010</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Straight Connector 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18837275" y="1857375"/>
+          <a:off x="19142075" y="1857375"/>
           <a:ext cx="0" cy="2762250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1150,14 +1516,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10111105" y="2917190"/>
+          <a:off x="10543540" y="2917190"/>
           <a:ext cx="0" cy="2378075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1192,20 +1558,20 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>221615</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Connector 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="5534025"/>
-          <a:ext cx="6550025" cy="0"/>
+          <a:off x="8725535" y="5534025"/>
+          <a:ext cx="3049270" cy="10160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1230,26 +1596,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>493395</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>493396</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>156845</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14837410" y="1981200"/>
-          <a:ext cx="0" cy="3553460"/>
+          <a:off x="11786870" y="5181600"/>
+          <a:ext cx="10795" cy="375920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1291,15 +1657,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="Straight Connector 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8288655" y="5753100"/>
-          <a:ext cx="8805545" cy="0"/>
+          <a:off x="8727440" y="5753100"/>
+          <a:ext cx="8796020" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1309,50 +1675,6 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>118747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>118747</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12651105" y="3233420"/>
-          <a:ext cx="1417320" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1384,14 +1706,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Connector 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22202140" y="1847850"/>
+          <a:off x="22619970" y="1847850"/>
           <a:ext cx="400050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1428,14 +1750,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="Straight Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22601555" y="1847850"/>
+          <a:off x="23019385" y="1847850"/>
           <a:ext cx="15875" cy="2983865"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1472,14 +1794,14 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="Straight Connector 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14173200" y="1400175"/>
+          <a:off x="14610080" y="1400175"/>
           <a:ext cx="0" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1488,13 +1810,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1516,15 +1838,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Connector 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="5981700"/>
-          <a:ext cx="13134340" cy="0"/>
+          <a:off x="8725535" y="5981700"/>
+          <a:ext cx="13119100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1560,14 +1882,14 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21421090" y="3162300"/>
+          <a:off x="21844635" y="3162300"/>
           <a:ext cx="9525" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1607,15 +1929,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14182725" y="3031490"/>
-          <a:ext cx="5096510" cy="0"/>
+          <a:off x="14619605" y="3031490"/>
+          <a:ext cx="5085080" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1654,14 +1976,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Straight Connector 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14582140" y="2313940"/>
+          <a:off x="15023465" y="2313940"/>
           <a:ext cx="0" cy="2200910"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1698,14 +2020,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="21" name="Straight Connector 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11839575" y="4686300"/>
+          <a:off x="12277090" y="4686300"/>
           <a:ext cx="0" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1732,25 +2054,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>514985</xdr:colOff>
+      <xdr:colOff>479425</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>237490</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="Straight Connector 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14288135" y="4511675"/>
-          <a:ext cx="294005" cy="2540"/>
+          <a:off x="14689455" y="4507230"/>
+          <a:ext cx="333375" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1786,14 +2108,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14274165" y="4265930"/>
+          <a:off x="14711045" y="4265930"/>
           <a:ext cx="0" cy="248285"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1833,15 +2155,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="Elbow Connector 23"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8289290" y="3924300"/>
-          <a:ext cx="4350385" cy="1160780"/>
+          <a:off x="8728075" y="3924300"/>
+          <a:ext cx="4349115" cy="1160780"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1882,14 +2204,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13458825" y="4253865"/>
+          <a:off x="13893165" y="4253865"/>
           <a:ext cx="0" cy="574675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1929,14 +2251,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="Elbow Connector 25"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="12900660" y="3032760"/>
+          <a:off x="13335000" y="3032760"/>
           <a:ext cx="660400" cy="417195"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1978,67 +2300,18 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Conector de seta reta 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3539490" y="2081530"/>
-          <a:ext cx="685800" cy="1905"/>
+          <a:off x="3528695" y="2081530"/>
+          <a:ext cx="690880" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Conector angulado 80"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8286750" y="2769235"/>
-          <a:ext cx="2828925" cy="468630"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 43416"/>
-          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -2074,15 +2347,15 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="29" name="Conector de seta reta 83"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8291830" y="1362710"/>
-          <a:ext cx="1518285" cy="20320"/>
+          <a:off x="8730615" y="1362710"/>
+          <a:ext cx="1512570" cy="20320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2121,14 +2394,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Conector reto 87"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9003665" y="1397635"/>
+          <a:off x="9442450" y="1397635"/>
           <a:ext cx="0" cy="902970"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2165,15 +2438,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Conector de seta reta 91"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="1854835"/>
-          <a:ext cx="1524000" cy="0"/>
+          <a:off x="8725535" y="1854835"/>
+          <a:ext cx="1517650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2212,15 +2485,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="32" name="Conector de seta reta 113"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9003665" y="2312035"/>
-          <a:ext cx="807085" cy="0"/>
+          <a:off x="9442450" y="2312035"/>
+          <a:ext cx="800735" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2259,15 +2532,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Conector reto 123"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286750" y="5295265"/>
-          <a:ext cx="1826260" cy="0"/>
+          <a:off x="8725535" y="5295265"/>
+          <a:ext cx="1819910" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2303,14 +2576,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>122208</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="Conector de seta reta 134"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17094200" y="2886075"/>
+          <a:off x="17523460" y="2886075"/>
           <a:ext cx="0" cy="2865120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2350,15 +2623,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="Conector reto 157"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13453110" y="4828540"/>
-          <a:ext cx="9167495" cy="19685"/>
+          <a:off x="13887450" y="4828540"/>
+          <a:ext cx="9150985" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2384,25 +2657,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>18415</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>199390</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>144145</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Conector reto 161"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13792200" y="4619625"/>
-          <a:ext cx="5047615" cy="0"/>
+          <a:off x="14228445" y="4619625"/>
+          <a:ext cx="4906010" cy="10795"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2438,14 +2711,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="37" name="Conector de seta reta 164"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13792200" y="4257675"/>
+          <a:off x="14229080" y="4257675"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2485,15 +2758,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="Straight Connector 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1073785" y="6181725"/>
-          <a:ext cx="4758690" cy="26035"/>
+          <a:off x="1070610" y="6181725"/>
+          <a:ext cx="4746625" cy="26035"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2529,14 +2802,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="Straight Connector 42"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1087755" y="743585"/>
+          <a:off x="1084580" y="743585"/>
           <a:ext cx="47625" cy="5495925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2573,14 +2846,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1116965" y="2332990"/>
+          <a:off x="1113790" y="2332990"/>
           <a:ext cx="337820" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2620,15 +2893,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="Straight Connector 44"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1085215" y="695960"/>
-          <a:ext cx="17897475" cy="36830"/>
+          <a:off x="1082040" y="695960"/>
+          <a:ext cx="18329275" cy="36830"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2664,14 +2937,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Straight Connector 45"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18517870" y="1400175"/>
+          <a:off x="18946495" y="1400175"/>
           <a:ext cx="455295" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2708,14 +2981,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="Straight Connector 46"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18966180" y="713105"/>
+          <a:off x="19394805" y="713105"/>
           <a:ext cx="0" cy="701040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2742,25 +3015,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>861060</xdr:colOff>
+      <xdr:colOff>860425</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>490855</xdr:colOff>
+      <xdr:colOff>502285</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="Straight Connector 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6690360" y="2104390"/>
-          <a:ext cx="515620" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="6674485" y="2092960"/>
+          <a:ext cx="986155" cy="11430"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2796,14 +3069,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7214870" y="1444625"/>
+          <a:off x="7658100" y="1444625"/>
           <a:ext cx="26670" cy="3185160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2843,14 +3116,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="Straight Connector 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7241540" y="1444625"/>
+          <a:off x="7684770" y="1444625"/>
           <a:ext cx="476250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2887,59 +3160,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="Straight Connector 51"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7228205" y="1888490"/>
-          <a:ext cx="519430" cy="13335"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>526415</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Connector 52"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7241540" y="2734945"/>
-          <a:ext cx="435610" cy="13335"/>
+          <a:off x="7671435" y="1888490"/>
+          <a:ext cx="513715" cy="13335"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2975,14 +3204,14 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="794385" y="1657985"/>
+          <a:off x="791210" y="1657985"/>
           <a:ext cx="582930" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3022,14 +3251,14 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="818515" y="1398270"/>
+          <a:off x="815340" y="1398270"/>
           <a:ext cx="582930" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3058,26 +3287,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>97790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>490855</xdr:colOff>
+      <xdr:colOff>490220</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="58" name="Straight Connector 57"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2665095" y="3888105"/>
-          <a:ext cx="4540885" cy="10795"/>
+        <a:xfrm flipH="1">
+          <a:off x="1628140" y="3898265"/>
+          <a:ext cx="6020435" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3113,14 +3342,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2665095" y="3396615"/>
+          <a:off x="2654300" y="3396615"/>
           <a:ext cx="10795" cy="525145"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3139,6 +3368,286 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>156845</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1674495" y="3397885"/>
+          <a:ext cx="10795" cy="525145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1329055</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1308735</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Elbow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143115" y="2514600"/>
+          <a:ext cx="4408805" cy="2299335"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50014"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13227050" y="4299585"/>
+          <a:ext cx="11430" cy="363855"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13086080" y="4652645"/>
+          <a:ext cx="140970" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>210820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="18955385" y="1875790"/>
+          <a:ext cx="190500" cy="10795"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>737235</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Elbow Connector 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13093065" y="1875790"/>
+          <a:ext cx="6579235" cy="3166745"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95569"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3402,911 +3911,722 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703703703704" customWidth="1"/>
+    <col min="2" max="3" width="12.7111111111111" customWidth="1"/>
+    <col min="4" max="4" width="3.71111111111111" customWidth="1"/>
+    <col min="5" max="5" width="3.85185185185185" customWidth="1"/>
+    <col min="6" max="9" width="3.71111111111111" customWidth="1"/>
+    <col min="10" max="10" width="4.71111111111111" customWidth="1"/>
+    <col min="11" max="11" width="5.28148148148148" customWidth="1"/>
+    <col min="12" max="12" width="30.7111111111111" customWidth="1"/>
+    <col min="13" max="13" width="20.1407407407407" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="25" max="26" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.1407407407407" customWidth="1"/>
+    <col min="22" max="22" width="19.5703703703704" customWidth="1"/>
+    <col min="23" max="23" width="5.42222222222222" customWidth="1"/>
+    <col min="24" max="24" width="15.7111111111111" customWidth="1"/>
+    <col min="25" max="26" width="14.5703703703704" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="35" max="35" width="9.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" customWidth="1"/>
-    <col min="43" max="43" width="16.28515625" customWidth="1"/>
+    <col min="28" max="28" width="10.2814814814815" customWidth="1"/>
+    <col min="29" max="29" width="14.8518518518519" customWidth="1"/>
+    <col min="32" max="32" width="18.2814814814815" customWidth="1"/>
+    <col min="33" max="33" width="14.5703703703704" customWidth="1"/>
+    <col min="35" max="35" width="9.71111111111111" customWidth="1"/>
+    <col min="39" max="39" width="12.4222222222222" customWidth="1"/>
+    <col min="41" max="41" width="11.2814814814815" customWidth="1"/>
+    <col min="43" max="43" width="16.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="O2" s="44" t="s">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="51"/>
+      <c r="O2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="S2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
     </row>
     <row r="3" spans="2:27">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="31" t="s">
+      <c r="M3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="O3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="P3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="Q3" s="37"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="S3" s="39" t="s">
+      <c r="C4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>0</v>
+      </c>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="53"/>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="40"/>
+      <c r="C5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37">
+        <v>1</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>1</v>
+      </c>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="53"/>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="52"/>
+      <c r="O6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>0</v>
+      </c>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="53"/>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="37">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="53"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75">
-      <c r="B4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="31" t="s">
+    <row r="8" spans="2:27">
+      <c r="B8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>0</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="40">
-        <v>0</v>
-      </c>
-      <c r="U4" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="V4" s="40">
-        <v>0</v>
-      </c>
-      <c r="W4" s="40">
-        <v>0</v>
-      </c>
-      <c r="X4" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="40">
+      <c r="C8" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="43">
         <v>1</v>
       </c>
-      <c r="AA4" s="31">
-        <f>T4+U4+V4+W4+X4+Y4+Z4</f>
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K8" s="43">
+        <v>0</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="53"/>
     </row>
-    <row r="5" spans="2:27" ht="15.75">
-      <c r="B5" s="50"/>
-      <c r="C5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31">
+    <row r="9" spans="2:27">
+      <c r="B9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="51"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="53"/>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="B10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="53"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>1</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="31">
+      <c r="F11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="45"/>
+      <c r="C12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
         <v>1</v>
       </c>
-      <c r="S5" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="31">
-        <f t="shared" ref="AA5:AA10" si="0">T5+U5+V5+W5+X5+Y5+Z5</f>
-        <v>0.1</v>
-      </c>
+      <c r="F12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <v>1</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
     </row>
-    <row r="6" spans="2:27" ht="15.75">
-      <c r="B6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="31">
+    <row r="13" spans="2:17">
+      <c r="B13" s="46"/>
+      <c r="C13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="31">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="31">
+      <c r="F13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="37">
         <v>1</v>
       </c>
-      <c r="Q6" s="31">
-        <v>0</v>
-      </c>
-      <c r="S6" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40">
-        <v>0</v>
-      </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K13" s="37">
+        <v>1</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
     </row>
-    <row r="7" spans="2:27" ht="15.75">
-      <c r="B7" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="O7" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="31">
+    <row r="14" spans="2:17">
+      <c r="B14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="51"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="47"/>
+      <c r="C15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="37">
         <v>1</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="E16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="37">
         <v>1</v>
       </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="31">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="15.75">
-      <c r="B8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="31" t="s">
+    <row r="21" spans="3:13">
+      <c r="C21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="E22" s="48"/>
+      <c r="F22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="31">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75">
-      <c r="B9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="32">
-        <v>1</v>
-      </c>
-      <c r="K9" s="32">
-        <v>1</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="S9" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="31">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" ht="15.75">
-      <c r="O10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="44"/>
-      <c r="S10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="31">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27">
-      <c r="B11" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="O11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="33"/>
-      <c r="C12" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="31">
-        <v>1</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
-      <c r="B15" s="35"/>
-      <c r="C15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="31">
-        <v>1</v>
-      </c>
-      <c r="E15" s="31">
-        <v>1</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="66"/>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
-      <c r="C18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17">
-      <c r="C19" s="36">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36">
-        <v>0</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="37">
-        <v>0</v>
-      </c>
-      <c r="G19" s="37">
-        <v>0</v>
-      </c>
-      <c r="H19" s="37">
-        <v>0</v>
-      </c>
-      <c r="I19" s="37">
-        <v>1</v>
-      </c>
-      <c r="J19" s="37">
-        <v>0</v>
-      </c>
-      <c r="K19" s="37">
-        <v>0</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="3:17">
-      <c r="C20" s="37">
-        <v>1</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0</v>
-      </c>
-      <c r="E20" s="37">
-        <v>0</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0</v>
-      </c>
-      <c r="G20" s="37">
-        <v>0</v>
-      </c>
-      <c r="H20" s="37">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0</v>
-      </c>
-      <c r="J20" s="37">
-        <v>0</v>
-      </c>
-      <c r="K20" s="37">
-        <v>0</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="3:17">
-      <c r="C21" s="37">
-        <v>2</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0</v>
-      </c>
-      <c r="E21" s="37">
-        <v>0</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0</v>
-      </c>
-      <c r="G21" s="37">
-        <v>0</v>
-      </c>
-      <c r="H21" s="37">
-        <v>1</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0</v>
-      </c>
-      <c r="J21" s="37">
-        <v>0</v>
-      </c>
-      <c r="K21" s="37">
-        <v>1</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="3:17">
-      <c r="C22" s="37">
-        <v>3</v>
-      </c>
-      <c r="D22" s="37">
-        <v>1</v>
-      </c>
-      <c r="E22" s="37">
-        <v>1</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0</v>
-      </c>
-      <c r="G22" s="37">
-        <v>0</v>
-      </c>
-      <c r="H22" s="37">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37">
-        <v>1</v>
-      </c>
-      <c r="J22" s="37">
-        <v>0</v>
-      </c>
-      <c r="K22" s="37">
-        <v>1</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:13">
       <c r="C23" s="37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="37">
         <v>0</v>
@@ -4315,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="37">
         <v>0</v>
@@ -4327,49 +4647,49 @@
         <v>0</v>
       </c>
       <c r="K23" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="3:13">
       <c r="C24" s="37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="37">
         <v>0</v>
       </c>
       <c r="G24" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="37">
         <v>0</v>
       </c>
       <c r="I24" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="37">
         <v>0</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="3:13">
       <c r="C25" s="37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" s="37">
         <v>0</v>
@@ -4378,43 +4698,43 @@
         <v>0</v>
       </c>
       <c r="F25" s="37">
+        <v>0</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0</v>
+      </c>
+      <c r="H25" s="37">
         <v>1</v>
       </c>
-      <c r="G25" s="37">
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="37">
-        <v>0</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-      <c r="J25" s="37">
-        <v>1</v>
-      </c>
-      <c r="K25" s="37">
-        <v>0</v>
-      </c>
       <c r="L25" s="37" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="3:13">
       <c r="C26" s="37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D26" s="37">
         <v>1</v>
       </c>
       <c r="E26" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="37">
         <v>0</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>72</v>
+      <c r="G26" s="37">
+        <v>0</v>
       </c>
       <c r="H26" s="37">
         <v>0</v>
@@ -4423,35 +4743,150 @@
         <v>1</v>
       </c>
       <c r="J26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="37">
         <v>1</v>
       </c>
-      <c r="K26" s="37">
-        <v>0</v>
-      </c>
       <c r="L26" s="37" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="M26" s="37"/>
     </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="37">
+        <v>4</v>
+      </c>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0</v>
+      </c>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37">
+        <v>1</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0</v>
+      </c>
+      <c r="K27" s="37">
+        <v>1</v>
+      </c>
+      <c r="L27" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="37">
+        <v>5</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
+      <c r="F28" s="37">
+        <v>0</v>
+      </c>
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+      <c r="H28" s="37">
+        <v>0</v>
+      </c>
+      <c r="I28" s="37">
+        <v>1</v>
+      </c>
+      <c r="J28" s="37">
+        <v>1</v>
+      </c>
+      <c r="K28" s="37">
+        <v>0</v>
+      </c>
+      <c r="L28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="37"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="37">
+        <v>6</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
+        <v>1</v>
+      </c>
+      <c r="G29" s="37">
+        <v>1</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0</v>
+      </c>
+      <c r="J29" s="37">
+        <v>1</v>
+      </c>
+      <c r="K29" s="37">
+        <v>0</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="37"/>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="37">
+        <v>7</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37">
+        <v>0</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="37">
+        <v>0</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1</v>
+      </c>
+      <c r="J30" s="37">
+        <v>1</v>
+      </c>
+      <c r="K30" s="37">
+        <v>0</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="O9:Q9"/>
+  <mergeCells count="31">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S2:AA2"/>
@@ -4460,840 +4895,859 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A4:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.2814814814815" customWidth="1"/>
+    <col min="4" max="4" width="13.2814814814815" customWidth="1"/>
+    <col min="8" max="8" width="15.6814814814815" customWidth="1"/>
+    <col min="9" max="9" width="11.7111111111111" customWidth="1"/>
+    <col min="10" max="10" width="6.57037037037037" customWidth="1"/>
+    <col min="13" max="13" width="15.2814814814815" customWidth="1"/>
+    <col min="14" max="14" width="17.8518518518519" customWidth="1"/>
+    <col min="15" max="15" width="13.1407407407407" customWidth="1"/>
+    <col min="16" max="16" width="6.71111111111111" customWidth="1"/>
+    <col min="19" max="19" width="10.7111111111111" customWidth="1"/>
+    <col min="21" max="21" width="11.1407407407407" customWidth="1"/>
+    <col min="23" max="23" width="10.5703703703704" customWidth="1"/>
+    <col min="25" max="25" width="14.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" ht="18.75">
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
+    <row r="4" ht="18" spans="5:25">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:25" ht="18.75">
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
+    <row r="5" ht="18" spans="5:25">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="1:25" ht="18.75">
-      <c r="C6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
+    <row r="6" ht="18" spans="3:25">
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
     </row>
-    <row r="7" spans="1:25" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="13"/>
+    <row r="7" ht="18" spans="1:25">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="18" t="s">
-        <v>81</v>
+      <c r="J7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="N7" s="15"/>
-      <c r="O7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="28">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="30"/>
+      <c r="O7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="34"/>
     </row>
-    <row r="8" spans="1:25" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="17" t="s">
-        <v>86</v>
+    <row r="8" ht="18" spans="1:25">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="12">
-        <v>1</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="30"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="34"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75">
+    <row r="9" ht="18" spans="3:25">
       <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="18" t="s">
-        <v>89</v>
+      <c r="J9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="29">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y9" s="56"/>
+      <c r="O9" s="5"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="18.75">
+    <row r="10" ht="18" spans="3:25">
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="18" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>94</v>
+      <c r="H10" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="12">
-        <v>2</v>
-      </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="16"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="18.75">
-      <c r="C11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="17"/>
+    <row r="11" ht="18" spans="3:25">
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="18" t="s">
-        <v>96</v>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="16"/>
+      <c r="O11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25" ht="18.75">
+    <row r="12" ht="18" spans="3:25">
       <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="18"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="16"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="18.75">
+    <row r="13" ht="18" spans="3:25">
       <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" ht="18.75">
+    <row r="14" ht="18" spans="3:25">
       <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="21" t="s">
-        <v>104</v>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="18.75">
-      <c r="C15" s="6"/>
+    <row r="15" ht="18" spans="3:25">
+      <c r="C15" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
     </row>
-    <row r="16" spans="1:25" ht="18.75">
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
+    <row r="16" ht="18" spans="5:25">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
     </row>
-    <row r="17" spans="3:25" ht="18.75">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
+    <row r="17" ht="18" spans="5:25">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="3:25" ht="18.75">
-      <c r="E18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+    <row r="18" ht="18" spans="5:25">
+      <c r="E18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="3:25" ht="18.75">
+    <row r="19" ht="18" spans="4:25">
       <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
     </row>
-    <row r="20" spans="3:25" ht="18.75">
+    <row r="20" ht="18" spans="4:25">
       <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
     </row>
-    <row r="21" spans="3:25" ht="18.75">
+    <row r="21" ht="18" spans="3:25">
       <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="31">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="3:25" ht="18.75">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="12"/>
+    <row r="22" ht="18" spans="5:25">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="11"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
     </row>
-    <row r="23" spans="3:25" ht="18.75">
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="H23" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="12"/>
+    <row r="23" ht="18" spans="5:25">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="H23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="22">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
     </row>
-    <row r="24" spans="3:25" ht="18.75">
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="12"/>
-      <c r="O24" s="12"/>
+    <row r="24" ht="18" spans="5:25">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="11"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
     </row>
-    <row r="25" spans="3:25" ht="18.75">
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
+    <row r="25" ht="18" spans="5:25">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="H25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
     </row>
-    <row r="26" spans="3:25" ht="18.75">
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="64"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
+    <row r="26" ht="18" spans="5:25">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
     </row>
-    <row r="27" spans="3:25" ht="18.75">
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
+    <row r="27" ht="18" spans="5:25">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="3:25" ht="18.75">
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+    <row r="28" ht="18" spans="5:25">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
+      <c r="H28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="3:25" ht="18.75">
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+    <row r="29" ht="18" spans="5:25">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
     </row>
-    <row r="30" spans="3:25" ht="18.75">
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+    <row r="30" ht="18" spans="5:25">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
     </row>
-    <row r="31" spans="3:25" ht="18.75">
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+    <row r="31" ht="18" spans="5:25">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
     </row>
-    <row r="32" spans="3:25" ht="18.75">
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
+    <row r="32" ht="18" spans="5:25">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Instruções.xlsx
+++ b/Docs/Instruções.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>Tipo R 8-bits</t>
   </si>
@@ -175,31 +175,40 @@
     <t>assembly</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>add $s0, $s0</t>
-  </si>
-  <si>
-    <t>sub  $s0, $s2</t>
-  </si>
-  <si>
-    <t>sw $s0, 1($s1)</t>
-  </si>
-  <si>
-    <t>lw $s1, 1($s1)</t>
-  </si>
-  <si>
-    <t>sw $s1, 2($s1)</t>
-  </si>
-  <si>
-    <t>move $s3, $s0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>lw $s1, 2($s1)</t>
+    <t>LI $s0 = 10</t>
+  </si>
+  <si>
+    <t>valor passado</t>
+  </si>
+  <si>
+    <t>LI $s1 = 5</t>
+  </si>
+  <si>
+    <t>add $s0 ,$s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub$s0, $s1 </t>
+  </si>
+  <si>
+    <t>sw $0, 234</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>endereço passado</t>
+  </si>
+  <si>
+    <t>lw $3, 234</t>
+  </si>
+  <si>
+    <t>beq $s0, $s1, 2</t>
+  </si>
+  <si>
+    <t>bne $s0, $s1, 2</t>
+  </si>
+  <si>
+    <t>loop 14</t>
   </si>
   <si>
     <t>pc</t>
@@ -259,7 +268,7 @@
     <t>instrução</t>
   </si>
   <si>
-    <t>jump_func</t>
+    <t>salto_func</t>
   </si>
   <si>
     <t xml:space="preserve">Escrever Reg </t>
@@ -328,7 +337,7 @@
     <t>MENwrite</t>
   </si>
   <si>
-    <t>Loop Func</t>
+    <t>salto Func</t>
   </si>
 </sst>
 </file>
@@ -336,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -372,14 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -396,7 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +411,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -417,10 +426,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,9 +457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,9 +467,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,11 +502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,39 +516,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,7 +532,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,31 +586,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,19 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,19 +652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,25 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,55 +706,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,21 +919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -935,6 +953,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -945,6 +989,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,167 +1016,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,46 +1290,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1385,7 +1439,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14210030" y="1384935"/>
+          <a:off x="14385925" y="1384935"/>
           <a:ext cx="2082800" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1432,7 +1486,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14210030" y="2304415"/>
+          <a:off x="14385925" y="2304415"/>
           <a:ext cx="2092960" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1479,7 +1533,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19142075" y="1857375"/>
+          <a:off x="19317970" y="1857375"/>
           <a:ext cx="0" cy="2762250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1523,7 +1577,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10543540" y="2917190"/>
+          <a:off x="10719435" y="2917190"/>
           <a:ext cx="0" cy="2378075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1570,7 +1624,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8725535" y="5534025"/>
+          <a:off x="8901430" y="5534025"/>
           <a:ext cx="3049270" cy="10160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1614,7 +1668,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11786870" y="5181600"/>
+          <a:off x="11962765" y="5181600"/>
           <a:ext cx="10795" cy="375920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1664,7 +1718,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8727440" y="5753100"/>
+          <a:off x="8903335" y="5753100"/>
           <a:ext cx="8796020" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1713,7 +1767,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22619970" y="1847850"/>
+          <a:off x="22795865" y="1847850"/>
           <a:ext cx="400050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1757,7 +1811,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23019385" y="1847850"/>
+          <a:off x="23195280" y="1847850"/>
           <a:ext cx="15875" cy="2983865"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1801,7 +1855,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14610080" y="1400175"/>
+          <a:off x="14785975" y="1400175"/>
           <a:ext cx="0" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1845,7 +1899,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8725535" y="5981700"/>
+          <a:off x="8901430" y="5981700"/>
           <a:ext cx="13119100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1889,7 +1943,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21844635" y="3162300"/>
+          <a:off x="22020530" y="3162300"/>
           <a:ext cx="9525" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1936,7 +1990,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14619605" y="3031490"/>
+          <a:off x="14795500" y="3031490"/>
           <a:ext cx="5085080" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1983,7 +2037,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15023465" y="2313940"/>
+          <a:off x="15199360" y="2313940"/>
           <a:ext cx="0" cy="2200910"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2027,7 +2081,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12277090" y="4686300"/>
+          <a:off x="12452985" y="4686300"/>
           <a:ext cx="0" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2071,7 +2125,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14689455" y="4507230"/>
+          <a:off x="14865350" y="4507230"/>
           <a:ext cx="333375" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2115,7 +2169,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14711045" y="4265930"/>
+          <a:off x="14886940" y="4265930"/>
           <a:ext cx="0" cy="248285"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2162,7 +2216,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8728075" y="3924300"/>
+          <a:off x="8903970" y="3924300"/>
           <a:ext cx="4349115" cy="1160780"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2211,7 +2265,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13893165" y="4253865"/>
+          <a:off x="14069060" y="4253865"/>
           <a:ext cx="0" cy="574675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2258,7 +2312,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="13335000" y="3032760"/>
+          <a:off x="13510895" y="3032760"/>
           <a:ext cx="660400" cy="417195"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -2307,7 +2361,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3528695" y="2081530"/>
+          <a:off x="3704590" y="2081530"/>
           <a:ext cx="690880" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2354,7 +2408,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8730615" y="1362710"/>
+          <a:off x="8906510" y="1362710"/>
           <a:ext cx="1512570" cy="20320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2401,7 +2455,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9442450" y="1397635"/>
+          <a:off x="9618345" y="1397635"/>
           <a:ext cx="0" cy="902970"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2445,7 +2499,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8725535" y="1854835"/>
+          <a:off x="8901430" y="1854835"/>
           <a:ext cx="1517650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2492,7 +2546,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9442450" y="2312035"/>
+          <a:off x="9618345" y="2312035"/>
           <a:ext cx="800735" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2539,7 +2593,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8725535" y="5295265"/>
+          <a:off x="8901430" y="5295265"/>
           <a:ext cx="1819910" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2583,7 +2637,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17523460" y="2886075"/>
+          <a:off x="17699355" y="2886075"/>
           <a:ext cx="0" cy="2865120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2630,7 +2684,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13887450" y="4828540"/>
+          <a:off x="14063345" y="4828540"/>
           <a:ext cx="9150985" cy="19685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2674,7 +2728,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14228445" y="4619625"/>
+          <a:off x="14404340" y="4619625"/>
           <a:ext cx="4906010" cy="10795"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2718,7 +2772,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14229080" y="4257675"/>
+          <a:off x="14404975" y="4257675"/>
           <a:ext cx="0" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2766,7 +2820,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1070610" y="6181725"/>
-          <a:ext cx="4746625" cy="26035"/>
+          <a:ext cx="4922520" cy="26035"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2793,12 +2847,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>356870</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
@@ -2809,8 +2863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1084580" y="743585"/>
-          <a:ext cx="47625" cy="5495925"/>
+          <a:off x="1084580" y="2343785"/>
+          <a:ext cx="31115" cy="3895725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2901,7 +2955,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1082040" y="695960"/>
-          <a:ext cx="18329275" cy="36830"/>
+          <a:ext cx="18505170" cy="36830"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2944,7 +2998,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18946495" y="1400175"/>
+          <a:off x="19122390" y="1400175"/>
           <a:ext cx="455295" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2988,7 +3042,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19394805" y="713105"/>
+          <a:off x="19570700" y="713105"/>
           <a:ext cx="0" cy="701040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3032,7 +3086,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6674485" y="2092960"/>
+          <a:off x="6850380" y="2092960"/>
           <a:ext cx="986155" cy="11430"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3076,7 +3130,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7658100" y="1444625"/>
+          <a:off x="7833995" y="1444625"/>
           <a:ext cx="26670" cy="3185160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3123,7 +3177,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7684770" y="1444625"/>
+          <a:off x="7860665" y="1444625"/>
           <a:ext cx="476250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3167,7 +3221,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7671435" y="1888490"/>
+          <a:off x="7847330" y="1888490"/>
           <a:ext cx="513715" cy="13335"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3306,7 +3360,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1628140" y="3898265"/>
-          <a:ext cx="6020435" cy="635"/>
+          <a:ext cx="6196330" cy="635"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3349,7 +3403,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2654300" y="3396615"/>
+          <a:off x="2830195" y="3396615"/>
           <a:ext cx="10795" cy="525145"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3443,7 +3497,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143115" y="2514600"/>
+          <a:off x="7319010" y="2514600"/>
           <a:ext cx="4408805" cy="2299335"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3489,7 +3543,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13227050" y="4299585"/>
+          <a:off x="13402945" y="4299585"/>
           <a:ext cx="11430" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3536,7 +3590,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13086080" y="4652645"/>
+          <a:off x="13261975" y="4652645"/>
           <a:ext cx="140970" cy="11430"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3580,7 +3634,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="18955385" y="1875790"/>
+          <a:off x="19131280" y="1875790"/>
           <a:ext cx="190500" cy="10795"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3627,7 +3681,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13093065" y="1875790"/>
+          <a:off x="13268960" y="1875790"/>
           <a:ext cx="6579235" cy="3166745"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3648,6 +3702,97 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082040" y="721360"/>
+          <a:ext cx="0" cy="1383030"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082040" y="2070735"/>
+          <a:ext cx="381000" cy="22225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3917,10 +4062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AA30"/>
+  <dimension ref="B2:AA35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:AA10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
@@ -3965,21 +4110,21 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
-      <c r="M2" s="51"/>
+      <c r="M2" s="55"/>
       <c r="O2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="37" t="s">
@@ -3991,7 +4136,7 @@
       <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="37" t="s">
         <v>5</v>
       </c>
@@ -4073,15 +4218,15 @@
       <c r="Q4" s="37">
         <v>0</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="53"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="60"/>
     </row>
     <row r="5" spans="2:27">
       <c r="B5" s="40"/>
@@ -4127,31 +4272,31 @@
       <c r="Q5" s="37">
         <v>1</v>
       </c>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="53"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="60"/>
     </row>
     <row r="6" spans="2:27">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="52"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="55"/>
       <c r="O6" s="37" t="s">
         <v>20</v>
       </c>
@@ -4161,15 +4306,15 @@
       <c r="Q6" s="37">
         <v>0</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="53"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="60"/>
     </row>
     <row r="7" spans="2:27">
       <c r="B7" s="37" t="s">
@@ -4181,13 +4326,13 @@
       <c r="D7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="37" t="s">
         <v>7</v>
       </c>
@@ -4210,62 +4355,62 @@
       <c r="R7" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="53"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="60"/>
     </row>
     <row r="8" spans="2:27">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="43">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="43" t="s">
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="41">
         <v>1</v>
       </c>
-      <c r="K8" s="43">
-        <v>0</v>
-      </c>
-      <c r="L8" s="43" t="s">
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="53"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="60"/>
     </row>
     <row r="9" spans="2:27">
       <c r="B9" s="35" t="s">
@@ -4281,19 +4426,19 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="51"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="53"/>
+      <c r="M9" s="55"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="60"/>
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="37" t="s">
@@ -4305,7 +4450,7 @@
       <c r="D10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="37" t="s">
         <v>5</v>
       </c>
@@ -4324,21 +4469,21 @@
       <c r="M10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="53"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="60"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -4374,12 +4519,12 @@
       <c r="M11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="45"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="37" t="s">
         <v>33</v>
       </c>
@@ -4413,12 +4558,12 @@
       <c r="M12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="46"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="37" t="s">
         <v>36</v>
       </c>
@@ -4452,9 +4597,9 @@
       <c r="M13" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="35" t="s">
@@ -4470,17 +4615,17 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="51"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
+      <c r="M14" s="55"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="47"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="37"/>
@@ -4504,7 +4649,7 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -4542,7 +4687,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -4580,310 +4725,473 @@
       </c>
     </row>
     <row r="21" spans="3:13">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="54"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="3:13">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="47" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="48"/>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37" t="s">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37" t="s">
+      <c r="K22" s="47"/>
+      <c r="L22" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="M22" s="60"/>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="37">
-        <v>0</v>
-      </c>
-      <c r="D23" s="37">
-        <v>0</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0</v>
-      </c>
-      <c r="G23" s="37">
-        <v>0</v>
-      </c>
-      <c r="H23" s="37">
-        <v>0</v>
-      </c>
-      <c r="I23" s="37">
+      <c r="C23" s="49">
+        <v>0</v>
+      </c>
+      <c r="D23" s="49">
         <v>1</v>
       </c>
-      <c r="J23" s="37">
-        <v>0</v>
-      </c>
-      <c r="K23" s="37">
-        <v>0</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="37"/>
+      <c r="E23" s="49">
+        <v>0</v>
+      </c>
+      <c r="F23" s="49">
+        <v>0</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="49">
+        <v>0</v>
+      </c>
+      <c r="I23" s="49">
+        <v>0</v>
+      </c>
+      <c r="J23" s="49">
+        <v>1</v>
+      </c>
+      <c r="K23" s="49">
+        <v>1</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="60"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="37">
+      <c r="C24" s="50">
         <v>1</v>
       </c>
-      <c r="D24" s="37">
-        <v>0</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0</v>
-      </c>
-      <c r="G24" s="37">
-        <v>0</v>
-      </c>
-      <c r="H24" s="37">
-        <v>0</v>
-      </c>
-      <c r="I24" s="37">
-        <v>0</v>
-      </c>
-      <c r="J24" s="37">
-        <v>0</v>
-      </c>
-      <c r="K24" s="37">
-        <v>0</v>
-      </c>
-      <c r="L24" s="37" t="s">
+      <c r="D24" s="51">
+        <v>0</v>
+      </c>
+      <c r="E24" s="51">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
+        <v>1</v>
+      </c>
+      <c r="I24" s="50">
+        <v>0</v>
+      </c>
+      <c r="J24" s="50">
+        <v>1</v>
+      </c>
+      <c r="K24" s="50">
+        <v>0</v>
+      </c>
+      <c r="L24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="37"/>
+      <c r="M24" s="60"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="37">
+      <c r="C25" s="49">
         <v>2</v>
       </c>
-      <c r="D25" s="37">
-        <v>0</v>
-      </c>
-      <c r="E25" s="37">
-        <v>0</v>
-      </c>
-      <c r="F25" s="37">
-        <v>0</v>
-      </c>
-      <c r="G25" s="37">
-        <v>0</v>
-      </c>
-      <c r="H25" s="37">
+      <c r="D25" s="49">
         <v>1</v>
       </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-      <c r="J25" s="37">
-        <v>0</v>
-      </c>
-      <c r="K25" s="37">
+      <c r="E25" s="49">
+        <v>0</v>
+      </c>
+      <c r="F25" s="49">
+        <v>0</v>
+      </c>
+      <c r="G25" s="49">
         <v>1</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="H25" s="49">
+        <v>0</v>
+      </c>
+      <c r="I25" s="49">
+        <v>0</v>
+      </c>
+      <c r="J25" s="49">
+        <v>1</v>
+      </c>
+      <c r="K25" s="49">
+        <v>1</v>
+      </c>
+      <c r="L25" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="37"/>
+      <c r="M25" s="60"/>
     </row>
     <row r="26" spans="3:13">
-      <c r="C26" s="37">
+      <c r="C26" s="50">
         <v>3</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="50">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0</v>
+      </c>
+      <c r="I26" s="50">
         <v>1</v>
       </c>
-      <c r="E26" s="37">
+      <c r="J26" s="50">
+        <v>0</v>
+      </c>
+      <c r="K26" s="50">
         <v>1</v>
       </c>
-      <c r="F26" s="37">
-        <v>0</v>
-      </c>
-      <c r="G26" s="37">
-        <v>0</v>
-      </c>
-      <c r="H26" s="37">
-        <v>0</v>
-      </c>
-      <c r="I26" s="37">
-        <v>1</v>
-      </c>
-      <c r="J26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="37">
-        <v>1</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="37"/>
+      <c r="L26" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="60"/>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="37">
+      <c r="C27" s="49">
         <v>4</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="49">
+        <v>0</v>
+      </c>
+      <c r="F27" s="49">
+        <v>0</v>
+      </c>
+      <c r="G27" s="49">
+        <v>0</v>
+      </c>
+      <c r="H27" s="49">
+        <v>0</v>
+      </c>
+      <c r="I27" s="49">
         <v>1</v>
       </c>
-      <c r="E27" s="37">
-        <v>0</v>
-      </c>
-      <c r="F27" s="37">
-        <v>0</v>
-      </c>
-      <c r="G27" s="37">
-        <v>1</v>
-      </c>
-      <c r="H27" s="37">
-        <v>0</v>
-      </c>
-      <c r="I27" s="37">
-        <v>1</v>
-      </c>
-      <c r="J27" s="37">
-        <v>0</v>
-      </c>
-      <c r="K27" s="37">
-        <v>1</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="37"/>
+      <c r="J27" s="49">
+        <v>0</v>
+      </c>
+      <c r="K27" s="49">
+        <v>0</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="60"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="37">
+      <c r="C28" s="52">
         <v>5</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="52">
+        <v>0</v>
+      </c>
+      <c r="E28" s="52">
+        <v>0</v>
+      </c>
+      <c r="F28" s="52">
+        <v>0</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0</v>
+      </c>
+      <c r="H28" s="52">
+        <v>0</v>
+      </c>
+      <c r="I28" s="52">
         <v>1</v>
       </c>
-      <c r="E28" s="37">
+      <c r="J28" s="52">
+        <v>0</v>
+      </c>
+      <c r="K28" s="52">
         <v>1</v>
       </c>
-      <c r="F28" s="37">
-        <v>0</v>
-      </c>
-      <c r="G28" s="37">
-        <v>1</v>
-      </c>
-      <c r="H28" s="37">
-        <v>0</v>
-      </c>
-      <c r="I28" s="37">
-        <v>1</v>
-      </c>
-      <c r="J28" s="37">
-        <v>1</v>
-      </c>
-      <c r="K28" s="37">
-        <v>0</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="37"/>
+      <c r="L28" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="60"/>
     </row>
     <row r="29" spans="3:13">
-      <c r="C29" s="37">
+      <c r="C29" s="49">
         <v>6</v>
       </c>
-      <c r="D29" s="37">
-        <v>0</v>
-      </c>
-      <c r="E29" s="37">
-        <v>0</v>
-      </c>
-      <c r="F29" s="37">
+      <c r="D29" s="49">
+        <v>0</v>
+      </c>
+      <c r="E29" s="49">
         <v>1</v>
       </c>
-      <c r="G29" s="37">
+      <c r="F29" s="49">
+        <v>0</v>
+      </c>
+      <c r="G29" s="49">
+        <v>0</v>
+      </c>
+      <c r="H29" s="49">
+        <v>0</v>
+      </c>
+      <c r="I29" s="49">
+        <v>0</v>
+      </c>
+      <c r="J29" s="49">
+        <v>0</v>
+      </c>
+      <c r="K29" s="49">
         <v>1</v>
       </c>
-      <c r="H29" s="37">
-        <v>0</v>
-      </c>
-      <c r="I29" s="37">
-        <v>0</v>
-      </c>
-      <c r="J29" s="37">
-        <v>1</v>
-      </c>
-      <c r="K29" s="37">
-        <v>0</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" s="37"/>
+      <c r="L29" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="60"/>
     </row>
     <row r="30" spans="3:13">
-      <c r="C30" s="37">
+      <c r="C30" s="50">
         <v>7</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="50">
         <v>1</v>
       </c>
-      <c r="E30" s="37">
-        <v>0</v>
-      </c>
-      <c r="F30" s="37">
-        <v>0</v>
-      </c>
-      <c r="G30" s="50" t="s">
+      <c r="E30" s="50">
+        <v>1</v>
+      </c>
+      <c r="F30" s="50">
+        <v>1</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="50">
+        <v>1</v>
+      </c>
+      <c r="I30" s="50">
+        <v>0</v>
+      </c>
+      <c r="J30" s="50">
+        <v>1</v>
+      </c>
+      <c r="K30" s="50">
+        <v>0</v>
+      </c>
+      <c r="L30" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="37">
-        <v>0</v>
-      </c>
-      <c r="I30" s="37">
+      <c r="M30" s="60"/>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="49">
+        <v>8</v>
+      </c>
+      <c r="D31" s="49">
+        <v>0</v>
+      </c>
+      <c r="E31" s="49">
         <v>1</v>
       </c>
-      <c r="J30" s="37">
+      <c r="F31" s="49">
         <v>1</v>
       </c>
-      <c r="K30" s="37">
-        <v>0</v>
-      </c>
-      <c r="L30" s="37" t="s">
+      <c r="G31" s="49">
+        <v>1</v>
+      </c>
+      <c r="H31" s="49">
+        <v>0</v>
+      </c>
+      <c r="I31" s="49">
+        <v>0</v>
+      </c>
+      <c r="J31" s="49">
+        <v>0</v>
+      </c>
+      <c r="K31" s="49">
+        <v>0</v>
+      </c>
+      <c r="L31" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M30" s="37"/>
+      <c r="M31" s="60"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="50">
+        <v>9</v>
+      </c>
+      <c r="D32" s="50">
+        <v>1</v>
+      </c>
+      <c r="E32" s="50">
+        <v>1</v>
+      </c>
+      <c r="F32" s="50">
+        <v>1</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="50">
+        <v>1</v>
+      </c>
+      <c r="I32" s="50">
+        <v>0</v>
+      </c>
+      <c r="J32" s="50">
+        <v>1</v>
+      </c>
+      <c r="K32" s="50">
+        <v>0</v>
+      </c>
+      <c r="L32" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="60"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="49">
+        <v>10</v>
+      </c>
+      <c r="D33" s="49">
+        <v>1</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0</v>
+      </c>
+      <c r="F33" s="49">
+        <v>0</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0</v>
+      </c>
+      <c r="I33" s="49">
+        <v>1</v>
+      </c>
+      <c r="J33" s="49">
+        <v>1</v>
+      </c>
+      <c r="K33" s="49">
+        <v>0</v>
+      </c>
+      <c r="L33" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="60"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="52">
+        <v>11</v>
+      </c>
+      <c r="D34" s="52">
+        <v>1</v>
+      </c>
+      <c r="E34" s="52">
+        <v>1</v>
+      </c>
+      <c r="F34" s="52">
+        <v>0</v>
+      </c>
+      <c r="G34" s="52">
+        <v>0</v>
+      </c>
+      <c r="H34" s="52">
+        <v>0</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1</v>
+      </c>
+      <c r="J34" s="52">
+        <v>1</v>
+      </c>
+      <c r="K34" s="52">
+        <v>0</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="60"/>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="49">
+        <v>12</v>
+      </c>
+      <c r="D35" s="49">
+        <v>0</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0</v>
+      </c>
+      <c r="F35" s="49">
+        <v>1</v>
+      </c>
+      <c r="G35" s="49">
+        <v>1</v>
+      </c>
+      <c r="H35" s="49">
+        <v>1</v>
+      </c>
+      <c r="I35" s="49">
+        <v>0</v>
+      </c>
+      <c r="J35" s="49">
+        <v>1</v>
+      </c>
+      <c r="K35" s="49">
+        <v>0</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -4929,13 +5237,13 @@
   <sheetPr/>
   <dimension ref="A4:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="10.2814814814815" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="13.2814814814815" customWidth="1"/>
     <col min="8" max="8" width="15.6814814814815" customWidth="1"/>
     <col min="9" max="9" width="11.7111111111111" customWidth="1"/>
@@ -4998,12 +5306,12 @@
     </row>
     <row r="6" ht="18" spans="3:25">
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="2"/>
@@ -5012,7 +5320,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -5020,23 +5328,23 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="29"/>
       <c r="V6" s="11"/>
       <c r="W6" s="29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
     </row>
     <row r="7" ht="18" spans="1:25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12"/>
@@ -5045,25 +5353,25 @@
       <c r="H7" s="5"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="11"/>
       <c r="S7" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="16"/>
@@ -5072,15 +5380,15 @@
     </row>
     <row r="8" ht="18" spans="1:25">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="5"/>
@@ -5111,11 +5419,11 @@
       <c r="H9" s="5"/>
       <c r="I9" s="15"/>
       <c r="J9" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="5"/>
@@ -5124,29 +5432,31 @@
       <c r="S9" s="4"/>
       <c r="T9" s="11"/>
       <c r="U9" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="X9" s="33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" ht="18" spans="3:25">
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -5168,7 +5478,7 @@
     </row>
     <row r="11" ht="18" spans="3:25">
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12"/>
@@ -5180,17 +5490,17 @@
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
       <c r="M11" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="5"/>
@@ -5206,7 +5516,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -5238,18 +5548,18 @@
       <c r="K13" s="12"/>
       <c r="L13" s="11"/>
       <c r="M13" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="6"/>
       <c r="T13" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="11"/>
@@ -5279,19 +5589,19 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X14" s="26"/>
       <c r="Y14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="18" spans="3:25">
       <c r="C15" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="6"/>
@@ -5349,7 +5659,7 @@
       <c r="M17" s="11"/>
       <c r="N17" s="12"/>
       <c r="O17" s="29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P17" s="29"/>
       <c r="Q17" s="11"/>
@@ -5397,7 +5707,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="8"/>
       <c r="O19" s="30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="11"/>
@@ -5464,7 +5774,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="24"/>
@@ -5472,7 +5782,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="15"/>
@@ -5489,10 +5799,10 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="H23" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="12"/>
@@ -5518,7 +5828,7 @@
       <c r="F24" s="11"/>
       <c r="H24" s="21"/>
       <c r="I24" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="12"/>
@@ -5540,10 +5850,10 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="H25" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="12"/>
@@ -5567,7 +5877,7 @@
       <c r="F26" s="11"/>
       <c r="H26" s="21"/>
       <c r="I26" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="12"/>
@@ -5591,7 +5901,7 @@
       <c r="F27" s="11"/>
       <c r="H27" s="22"/>
       <c r="I27" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="12"/>
@@ -5615,7 +5925,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="15"/>
       <c r="H28" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="28"/>
